--- a/in/Товары.xlsx
+++ b/in/Товары.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FL\Avito\avito_excel\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FL\Avito\avito_excel\avito_excel_project\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="503">
   <si>
     <t>Товарная группа</t>
   </si>
@@ -1438,6 +1438,96 @@
   </si>
   <si>
     <t>Проверка CoverType</t>
+  </si>
+  <si>
+    <t>Комментарий 2</t>
+  </si>
+  <si>
+    <t>Комментарий 1</t>
+  </si>
+  <si>
+    <t>Комментарий 3</t>
+  </si>
+  <si>
+    <t>Комментарий 4</t>
+  </si>
+  <si>
+    <t>Комментарий 5</t>
+  </si>
+  <si>
+    <t>Комментарий 6</t>
+  </si>
+  <si>
+    <t>Комментарий 22</t>
+  </si>
+  <si>
+    <t>Комментарий 23</t>
+  </si>
+  <si>
+    <t>Комментарий 24</t>
+  </si>
+  <si>
+    <t>Комментарий 25</t>
+  </si>
+  <si>
+    <t>Комментарий 26</t>
+  </si>
+  <si>
+    <t>Комментарий 27</t>
+  </si>
+  <si>
+    <t>Комментарий 28</t>
+  </si>
+  <si>
+    <t>Комментарий 29</t>
+  </si>
+  <si>
+    <t>Комментарий 30</t>
+  </si>
+  <si>
+    <t>Комментарий 31</t>
+  </si>
+  <si>
+    <t>Комментарий 42</t>
+  </si>
+  <si>
+    <t>Комментарий 43</t>
+  </si>
+  <si>
+    <t>Комментарий 44</t>
+  </si>
+  <si>
+    <t>Комментарий 45</t>
+  </si>
+  <si>
+    <t>Комментарий 46</t>
+  </si>
+  <si>
+    <t>Комментарий 47</t>
+  </si>
+  <si>
+    <t>Комментарий 48</t>
+  </si>
+  <si>
+    <t>Комментарий 49</t>
+  </si>
+  <si>
+    <t>Комментарий 50</t>
+  </si>
+  <si>
+    <t>Комментарий 51</t>
+  </si>
+  <si>
+    <t>Комментарий 52</t>
+  </si>
+  <si>
+    <t>Комментарий 53</t>
+  </si>
+  <si>
+    <t>Комментарий 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1568,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1527,6 +1617,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1540,7 +1654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1594,6 +1708,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1819,9 +1949,9 @@
   </sheetPr>
   <dimension ref="A1:BD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2:AP55"/>
+      <selection pane="bottomLeft" activeCell="AV29" sqref="AV29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1853,6 +1983,7 @@
     <col min="41" max="41" width="20.5703125" customWidth="1"/>
     <col min="42" max="42" width="14.140625" customWidth="1"/>
     <col min="44" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1993,7 +2124,9 @@
       <c r="AT1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AU1" s="5"/>
+      <c r="AU1" s="19" t="s">
+        <v>473</v>
+      </c>
       <c r="AV1" s="5"/>
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
@@ -2137,7 +2270,9 @@
       <c r="AT2" s="7">
         <v>2920</v>
       </c>
-      <c r="AU2" s="5"/>
+      <c r="AU2" s="19" t="s">
+        <v>474</v>
+      </c>
       <c r="AV2" s="5"/>
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
@@ -2281,7 +2416,9 @@
       <c r="AT3" s="7">
         <v>3060</v>
       </c>
-      <c r="AU3" s="5"/>
+      <c r="AU3" s="21" t="s">
+        <v>473</v>
+      </c>
       <c r="AV3" s="5"/>
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
@@ -2429,7 +2566,9 @@
       <c r="AT4" s="7">
         <v>2140</v>
       </c>
-      <c r="AU4" s="5"/>
+      <c r="AU4" s="21" t="s">
+        <v>475</v>
+      </c>
       <c r="AV4" s="5"/>
       <c r="AW4" s="5"/>
       <c r="AX4" s="5"/>
@@ -2575,7 +2714,9 @@
       <c r="AT5" s="7">
         <v>2200</v>
       </c>
-      <c r="AU5" s="5"/>
+      <c r="AU5" s="21" t="s">
+        <v>476</v>
+      </c>
       <c r="AV5" s="5"/>
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
@@ -2723,7 +2864,9 @@
       <c r="AT6" s="7">
         <v>2200</v>
       </c>
-      <c r="AU6" s="5"/>
+      <c r="AU6" s="21" t="s">
+        <v>477</v>
+      </c>
       <c r="AV6" s="5"/>
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
@@ -2867,7 +3010,9 @@
       <c r="AT7" s="7">
         <v>2200</v>
       </c>
-      <c r="AU7" s="5"/>
+      <c r="AU7" s="21" t="s">
+        <v>478</v>
+      </c>
       <c r="AV7" s="5"/>
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
@@ -3015,7 +3160,9 @@
       <c r="AT8" s="7">
         <v>2200</v>
       </c>
-      <c r="AU8" s="5"/>
+      <c r="AU8" s="21" t="s">
+        <v>502</v>
+      </c>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
@@ -3163,7 +3310,9 @@
       <c r="AT9" s="7">
         <v>2440</v>
       </c>
-      <c r="AU9" s="5"/>
+      <c r="AU9" s="21" t="s">
+        <v>502</v>
+      </c>
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
       <c r="AX9" s="5"/>
@@ -3311,7 +3460,9 @@
       <c r="AT10" s="7">
         <v>2440</v>
       </c>
-      <c r="AU10" s="5"/>
+      <c r="AU10" s="21" t="s">
+        <v>502</v>
+      </c>
       <c r="AV10" s="5"/>
       <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
@@ -3455,7 +3606,9 @@
       <c r="AT11" s="7">
         <v>2440</v>
       </c>
-      <c r="AU11" s="5"/>
+      <c r="AU11" s="21" t="s">
+        <v>502</v>
+      </c>
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
@@ -3603,7 +3756,9 @@
       <c r="AT12" s="7">
         <v>2440</v>
       </c>
-      <c r="AU12" s="5"/>
+      <c r="AU12" s="21" t="s">
+        <v>502</v>
+      </c>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
@@ -3747,7 +3902,9 @@
       <c r="AT13" s="7">
         <v>2440</v>
       </c>
-      <c r="AU13" s="5"/>
+      <c r="AU13" s="19" t="s">
+        <v>502</v>
+      </c>
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
@@ -3891,7 +4048,9 @@
       <c r="AT14" s="7">
         <v>2440</v>
       </c>
-      <c r="AU14" s="5"/>
+      <c r="AU14" s="19" t="s">
+        <v>502</v>
+      </c>
       <c r="AV14" s="5"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
@@ -4035,7 +4194,9 @@
       <c r="AT15" s="7">
         <v>3450</v>
       </c>
-      <c r="AU15" s="5"/>
+      <c r="AU15" s="19" t="s">
+        <v>502</v>
+      </c>
       <c r="AV15" s="5"/>
       <c r="AW15" s="5"/>
       <c r="AX15" s="5"/>
@@ -4179,7 +4340,9 @@
       <c r="AT16" s="7">
         <v>2440</v>
       </c>
-      <c r="AU16" s="5"/>
+      <c r="AU16" s="19" t="s">
+        <v>502</v>
+      </c>
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
@@ -4323,7 +4486,9 @@
       <c r="AT17" s="7">
         <v>2440</v>
       </c>
-      <c r="AU17" s="5"/>
+      <c r="AU17" s="19" t="s">
+        <v>502</v>
+      </c>
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
@@ -4467,7 +4632,9 @@
       <c r="AT18" s="7">
         <v>2440</v>
       </c>
-      <c r="AU18" s="5"/>
+      <c r="AU18" s="22" t="s">
+        <v>502</v>
+      </c>
       <c r="AV18" s="5"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
@@ -4611,7 +4778,9 @@
       <c r="AT19" s="7">
         <v>2440</v>
       </c>
-      <c r="AU19" s="5"/>
+      <c r="AU19" s="22" t="s">
+        <v>502</v>
+      </c>
       <c r="AV19" s="5"/>
       <c r="AW19" s="5"/>
       <c r="AX19" s="5"/>
@@ -4755,7 +4924,9 @@
       <c r="AT20" s="7">
         <v>2440</v>
       </c>
-      <c r="AU20" s="5"/>
+      <c r="AU20" s="22" t="s">
+        <v>502</v>
+      </c>
       <c r="AV20" s="5"/>
       <c r="AW20" s="5"/>
       <c r="AX20" s="5"/>
@@ -4899,7 +5070,9 @@
       <c r="AT21" s="7">
         <v>2440</v>
       </c>
-      <c r="AU21" s="5"/>
+      <c r="AU21" s="22" t="s">
+        <v>502</v>
+      </c>
       <c r="AV21" s="5"/>
       <c r="AW21" s="5"/>
       <c r="AX21" s="5"/>
@@ -5041,7 +5214,9 @@
       <c r="AT22" s="7">
         <v>2120</v>
       </c>
-      <c r="AU22" s="5"/>
+      <c r="AU22" s="22" t="s">
+        <v>502</v>
+      </c>
       <c r="AV22" s="5"/>
       <c r="AW22" s="5"/>
       <c r="AX22" s="5"/>
@@ -5183,7 +5358,9 @@
       <c r="AT23" s="7">
         <v>1880</v>
       </c>
-      <c r="AU23" s="5"/>
+      <c r="AU23" s="22" t="s">
+        <v>479</v>
+      </c>
       <c r="AV23" s="5"/>
       <c r="AW23" s="5"/>
       <c r="AX23" s="5"/>
@@ -5323,7 +5500,9 @@
       <c r="AT24" s="7">
         <v>2110</v>
       </c>
-      <c r="AU24" s="5"/>
+      <c r="AU24" s="22" t="s">
+        <v>480</v>
+      </c>
       <c r="AV24" s="5"/>
       <c r="AW24" s="5"/>
       <c r="AX24" s="5"/>
@@ -5463,7 +5642,9 @@
       <c r="AT25" s="7">
         <v>2300</v>
       </c>
-      <c r="AU25" s="5"/>
+      <c r="AU25" s="22" t="s">
+        <v>481</v>
+      </c>
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
@@ -5601,7 +5782,9 @@
       <c r="AT26" s="7">
         <v>2140</v>
       </c>
-      <c r="AU26" s="5"/>
+      <c r="AU26" s="22" t="s">
+        <v>482</v>
+      </c>
       <c r="AV26" s="5"/>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
@@ -5739,7 +5922,9 @@
       <c r="AT27" s="7">
         <v>2140</v>
       </c>
-      <c r="AU27" s="5"/>
+      <c r="AU27" s="22" t="s">
+        <v>483</v>
+      </c>
       <c r="AV27" s="5"/>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
@@ -5877,7 +6062,9 @@
       <c r="AT28" s="7">
         <v>2200</v>
       </c>
-      <c r="AU28" s="5"/>
+      <c r="AU28" s="24" t="s">
+        <v>484</v>
+      </c>
       <c r="AV28" s="5"/>
       <c r="AW28" s="5"/>
       <c r="AX28" s="5"/>
@@ -6015,7 +6202,9 @@
       <c r="AT29" s="7">
         <v>2200</v>
       </c>
-      <c r="AU29" s="5"/>
+      <c r="AU29" s="24" t="s">
+        <v>485</v>
+      </c>
       <c r="AV29" s="5"/>
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
@@ -6153,7 +6342,9 @@
       <c r="AT30" s="7">
         <v>2290</v>
       </c>
-      <c r="AU30" s="5"/>
+      <c r="AU30" s="24" t="s">
+        <v>486</v>
+      </c>
       <c r="AV30" s="5"/>
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
@@ -6291,7 +6482,9 @@
       <c r="AT31" s="7">
         <v>3060</v>
       </c>
-      <c r="AU31" s="5"/>
+      <c r="AU31" s="24" t="s">
+        <v>487</v>
+      </c>
       <c r="AV31" s="5"/>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
@@ -6429,7 +6622,9 @@
       <c r="AT32" s="7">
         <v>2290</v>
       </c>
-      <c r="AU32" s="5"/>
+      <c r="AU32" s="24" t="s">
+        <v>488</v>
+      </c>
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
       <c r="AX32" s="5"/>
@@ -6567,7 +6762,9 @@
       <c r="AT33" s="7">
         <v>2290</v>
       </c>
-      <c r="AU33" s="5"/>
+      <c r="AU33" s="24" t="s">
+        <v>502</v>
+      </c>
       <c r="AV33" s="5"/>
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
@@ -6705,7 +6902,9 @@
       <c r="AT34" s="7">
         <v>2290</v>
       </c>
-      <c r="AU34" s="5"/>
+      <c r="AU34" s="24" t="s">
+        <v>502</v>
+      </c>
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
       <c r="AX34" s="5"/>
@@ -6843,7 +7042,9 @@
       <c r="AT35" s="7">
         <v>2290</v>
       </c>
-      <c r="AU35" s="5"/>
+      <c r="AU35" s="24" t="s">
+        <v>502</v>
+      </c>
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
       <c r="AX35" s="5"/>
@@ -6981,7 +7182,9 @@
       <c r="AT36" s="7">
         <v>2440</v>
       </c>
-      <c r="AU36" s="5"/>
+      <c r="AU36" s="24" t="s">
+        <v>502</v>
+      </c>
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
       <c r="AX36" s="5"/>
@@ -7119,7 +7322,9 @@
       <c r="AT37" s="7">
         <v>2290</v>
       </c>
-      <c r="AU37" s="5"/>
+      <c r="AU37" s="24" t="s">
+        <v>502</v>
+      </c>
       <c r="AV37" s="5"/>
       <c r="AW37" s="5"/>
       <c r="AX37" s="5"/>
@@ -7257,7 +7462,9 @@
       <c r="AT38" s="7">
         <v>2290</v>
       </c>
-      <c r="AU38" s="5"/>
+      <c r="AU38" s="23" t="s">
+        <v>502</v>
+      </c>
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
@@ -7395,7 +7602,9 @@
       <c r="AT39" s="7">
         <v>2610</v>
       </c>
-      <c r="AU39" s="5"/>
+      <c r="AU39" s="23" t="s">
+        <v>502</v>
+      </c>
       <c r="AV39" s="5"/>
       <c r="AW39" s="5"/>
       <c r="AX39" s="5"/>
@@ -7533,7 +7742,9 @@
       <c r="AT40" s="7">
         <v>2350</v>
       </c>
-      <c r="AU40" s="5"/>
+      <c r="AU40" s="23" t="s">
+        <v>502</v>
+      </c>
       <c r="AV40" s="5"/>
       <c r="AW40" s="5"/>
       <c r="AX40" s="5"/>
@@ -7671,7 +7882,9 @@
       <c r="AT41" s="7">
         <v>2350</v>
       </c>
-      <c r="AU41" s="5"/>
+      <c r="AU41" s="23" t="s">
+        <v>502</v>
+      </c>
       <c r="AV41" s="5"/>
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
@@ -7809,7 +8022,9 @@
       <c r="AT42" s="7">
         <v>2350</v>
       </c>
-      <c r="AU42" s="5"/>
+      <c r="AU42" s="23" t="s">
+        <v>502</v>
+      </c>
       <c r="AV42" s="5"/>
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
@@ -7947,7 +8162,9 @@
       <c r="AT43" s="7">
         <v>2440</v>
       </c>
-      <c r="AU43" s="5"/>
+      <c r="AU43" s="23" t="s">
+        <v>489</v>
+      </c>
       <c r="AV43" s="5"/>
       <c r="AW43" s="5"/>
       <c r="AX43" s="5"/>
@@ -8085,7 +8302,9 @@
       <c r="AT44" s="7">
         <v>2700</v>
       </c>
-      <c r="AU44" s="5"/>
+      <c r="AU44" s="23" t="s">
+        <v>490</v>
+      </c>
       <c r="AV44" s="5"/>
       <c r="AW44" s="5"/>
       <c r="AX44" s="5"/>
@@ -8223,7 +8442,9 @@
       <c r="AT45" s="7">
         <v>2440</v>
       </c>
-      <c r="AU45" s="5"/>
+      <c r="AU45" s="23" t="s">
+        <v>491</v>
+      </c>
       <c r="AV45" s="5"/>
       <c r="AW45" s="5"/>
       <c r="AX45" s="5"/>
@@ -8361,7 +8582,9 @@
       <c r="AT46" s="7">
         <v>2440</v>
       </c>
-      <c r="AU46" s="5"/>
+      <c r="AU46" s="23" t="s">
+        <v>492</v>
+      </c>
       <c r="AV46" s="5"/>
       <c r="AW46" s="5"/>
       <c r="AX46" s="5"/>
@@ -8499,7 +8722,9 @@
       <c r="AT47" s="7">
         <v>2440</v>
       </c>
-      <c r="AU47" s="5"/>
+      <c r="AU47" s="23" t="s">
+        <v>493</v>
+      </c>
       <c r="AV47" s="5"/>
       <c r="AW47" s="5"/>
       <c r="AX47" s="5"/>
@@ -8637,7 +8862,9 @@
       <c r="AT48" s="7">
         <v>2440</v>
       </c>
-      <c r="AU48" s="5"/>
+      <c r="AU48" s="23" t="s">
+        <v>494</v>
+      </c>
       <c r="AV48" s="5"/>
       <c r="AW48" s="5"/>
       <c r="AX48" s="5"/>
@@ -8775,7 +9002,9 @@
       <c r="AT49" s="7">
         <v>2440</v>
       </c>
-      <c r="AU49" s="5"/>
+      <c r="AU49" s="23" t="s">
+        <v>495</v>
+      </c>
       <c r="AV49" s="5"/>
       <c r="AW49" s="5"/>
       <c r="AX49" s="5"/>
@@ -8913,7 +9142,9 @@
       <c r="AT50" s="7">
         <v>1780</v>
       </c>
-      <c r="AU50" s="5"/>
+      <c r="AU50" s="23" t="s">
+        <v>496</v>
+      </c>
       <c r="AV50" s="5"/>
       <c r="AW50" s="5"/>
       <c r="AX50" s="5"/>
@@ -9045,7 +9276,9 @@
       <c r="AT51" s="7">
         <v>3170</v>
       </c>
-      <c r="AU51" s="5"/>
+      <c r="AU51" s="23" t="s">
+        <v>497</v>
+      </c>
       <c r="AV51" s="5"/>
       <c r="AW51" s="5"/>
       <c r="AX51" s="5"/>
@@ -9177,7 +9410,9 @@
       <c r="AT52" s="7">
         <v>3050</v>
       </c>
-      <c r="AU52" s="5"/>
+      <c r="AU52" s="23" t="s">
+        <v>498</v>
+      </c>
       <c r="AV52" s="5"/>
       <c r="AW52" s="5"/>
       <c r="AX52" s="5"/>
@@ -9309,7 +9544,9 @@
       <c r="AT53" s="7">
         <v>2270</v>
       </c>
-      <c r="AU53" s="5"/>
+      <c r="AU53" s="23" t="s">
+        <v>499</v>
+      </c>
       <c r="AV53" s="5"/>
       <c r="AW53" s="5"/>
       <c r="AX53" s="5"/>
@@ -9443,7 +9680,9 @@
       <c r="AT54" s="7">
         <v>3530</v>
       </c>
-      <c r="AU54" s="5"/>
+      <c r="AU54" s="19" t="s">
+        <v>500</v>
+      </c>
       <c r="AV54" s="5"/>
       <c r="AW54" s="5"/>
       <c r="AX54" s="5"/>
@@ -9579,7 +9818,9 @@
       <c r="AT55" s="7">
         <v>1660</v>
       </c>
-      <c r="AU55" s="5"/>
+      <c r="AU55" s="19" t="s">
+        <v>501</v>
+      </c>
       <c r="AV55" s="5"/>
       <c r="AW55" s="5"/>
       <c r="AX55" s="5"/>

--- a/in/Товары.xlsx
+++ b/in/Товары.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="504">
   <si>
     <t>Товарная группа</t>
   </si>
@@ -1194,30 +1194,6 @@
     <t>3mKB0020</t>
   </si>
   <si>
-    <t>2mKB0020-3</t>
-  </si>
-  <si>
-    <t>3mKB0020-3</t>
-  </si>
-  <si>
-    <t>2mKB0020-4</t>
-  </si>
-  <si>
-    <t>3mKB0020-4</t>
-  </si>
-  <si>
-    <t>2mKB0020-5</t>
-  </si>
-  <si>
-    <t>3mKB0020-5</t>
-  </si>
-  <si>
-    <t>2mKB0020-6</t>
-  </si>
-  <si>
-    <t>3mKB0020-6</t>
-  </si>
-  <si>
     <t>2mKB0021</t>
   </si>
   <si>
@@ -1528,6 +1504,33 @@
   </si>
   <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>2mKB0020g3</t>
+  </si>
+  <si>
+    <t>3mKB0020g3</t>
+  </si>
+  <si>
+    <t>2mKB0020g4</t>
+  </si>
+  <si>
+    <t>3mKB0020g4</t>
+  </si>
+  <si>
+    <t>2mKB0020g5</t>
+  </si>
+  <si>
+    <t>3mKB0020g5</t>
+  </si>
+  <si>
+    <t>2mKB0020g6</t>
+  </si>
+  <si>
+    <t>3mKB0020g6</t>
+  </si>
+  <si>
+    <t>Id (сорт)</t>
   </si>
 </sst>
 </file>
@@ -1947,11 +1950,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BD55"/>
+  <dimension ref="A1:BE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV29" sqref="AV29"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1963,31 +1966,33 @@
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="15" width="10" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="26.85546875" customWidth="1"/>
-    <col min="22" max="24" width="26.140625" customWidth="1"/>
-    <col min="25" max="27" width="24.42578125" customWidth="1"/>
-    <col min="28" max="30" width="16.28515625" customWidth="1"/>
-    <col min="31" max="33" width="15.7109375" customWidth="1"/>
-    <col min="34" max="34" width="31.5703125" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" customWidth="1"/>
-    <col min="36" max="36" width="16" customWidth="1"/>
-    <col min="37" max="37" width="17" customWidth="1"/>
-    <col min="38" max="38" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.5703125" customWidth="1"/>
-    <col min="42" max="42" width="14.140625" customWidth="1"/>
-    <col min="44" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="64.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="16" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="26.85546875" customWidth="1"/>
+    <col min="23" max="25" width="26.140625" customWidth="1"/>
+    <col min="26" max="28" width="24.42578125" customWidth="1"/>
+    <col min="29" max="31" width="16.28515625" customWidth="1"/>
+    <col min="32" max="34" width="15.7109375" customWidth="1"/>
+    <col min="35" max="35" width="31.5703125" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" customWidth="1"/>
+    <col min="37" max="37" width="16" customWidth="1"/>
+    <col min="38" max="38" width="17" customWidth="1"/>
+    <col min="39" max="39" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.5703125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="45" max="47" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2012,122 +2017,126 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="J1" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>462</v>
-      </c>
       <c r="O1" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="P1" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>464</v>
-      </c>
       <c r="AM1" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="4" t="s">
-        <v>466</v>
-      </c>
       <c r="AO1" s="4" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AQ1" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AR1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AU1" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="AV1" s="5"/>
+      <c r="AV1" s="19" t="s">
+        <v>465</v>
+      </c>
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
@@ -2136,8 +2145,9 @@
       <c r="BB1" s="5"/>
       <c r="BC1" s="5"/>
       <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
     </row>
-    <row r="2" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>147</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F2" s="7">
         <v>3310114959</v>
@@ -2167,19 +2177,19 @@
         <v>39</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="N2" s="17"/>
+      <c r="N2" s="10" t="s">
+        <v>451</v>
+      </c>
       <c r="O2" s="17"/>
-      <c r="P2" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="P2" s="17"/>
       <c r="Q2" s="8" t="s">
         <v>41</v>
       </c>
@@ -2187,7 +2197,7 @@
         <v>41</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>42</v>
@@ -2196,7 +2206,7 @@
         <v>42</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>43</v>
@@ -2205,25 +2215,25 @@
         <v>43</v>
       </c>
       <c r="Y2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="7">
-        <v>79826997850</v>
+      <c r="AE2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF2" s="7">
         <v>79826997850</v>
@@ -2231,38 +2241,38 @@
       <c r="AG2" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL2" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM2" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO2" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP2" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR2" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR2" s="7">
-        <v>2920</v>
       </c>
       <c r="AS2" s="7">
         <v>2920</v>
@@ -2270,10 +2280,12 @@
       <c r="AT2" s="7">
         <v>2920</v>
       </c>
-      <c r="AU2" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="AV2" s="5"/>
+      <c r="AU2" s="7">
+        <v>2920</v>
+      </c>
+      <c r="AV2" s="19" t="s">
+        <v>466</v>
+      </c>
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
@@ -2282,8 +2294,9 @@
       <c r="BB2" s="5"/>
       <c r="BC2" s="5"/>
       <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
     </row>
-    <row r="3" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -2313,19 +2326,19 @@
         <v>54</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="17"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="P3" s="17"/>
       <c r="Q3" s="8" t="s">
         <v>55</v>
       </c>
@@ -2333,7 +2346,7 @@
         <v>55</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>56</v>
@@ -2342,7 +2355,7 @@
         <v>56</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W3" s="8" t="s">
         <v>57</v>
@@ -2351,25 +2364,25 @@
         <v>57</v>
       </c>
       <c r="Y3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="7">
-        <v>79826997850</v>
+      <c r="AE3" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF3" s="7">
         <v>79826997850</v>
@@ -2377,38 +2390,38 @@
       <c r="AG3" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AK3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AL3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM3" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN3" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO3" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP3" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR3" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR3" s="7">
-        <v>3060</v>
       </c>
       <c r="AS3" s="7">
         <v>3060</v>
@@ -2416,10 +2429,12 @@
       <c r="AT3" s="7">
         <v>3060</v>
       </c>
-      <c r="AU3" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="AV3" s="5"/>
+      <c r="AU3" s="7">
+        <v>3060</v>
+      </c>
+      <c r="AV3" s="21" t="s">
+        <v>465</v>
+      </c>
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
@@ -2428,8 +2443,9 @@
       <c r="BB3" s="5"/>
       <c r="BC3" s="5"/>
       <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
     </row>
-    <row r="4" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2459,22 +2475,22 @@
         <v>61</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="N4" s="17">
-        <v>2</v>
       </c>
       <c r="O4" s="17">
         <v>2</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>62</v>
+      <c r="P4" s="17">
+        <v>2</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>62</v>
@@ -2483,7 +2499,7 @@
         <v>62</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>63</v>
@@ -2492,7 +2508,7 @@
         <v>63</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W4" s="8" t="s">
         <v>64</v>
@@ -2501,25 +2517,25 @@
         <v>64</v>
       </c>
       <c r="Y4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AB4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC4" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE4" s="7">
-        <v>79826997850</v>
+      <c r="AE4" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF4" s="7">
         <v>79826997850</v>
@@ -2527,38 +2543,38 @@
       <c r="AG4" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AH4" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL4" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM4" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN4" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO4" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP4" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR4" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR4" s="7">
-        <v>2140</v>
       </c>
       <c r="AS4" s="7">
         <v>2140</v>
@@ -2566,10 +2582,12 @@
       <c r="AT4" s="7">
         <v>2140</v>
       </c>
-      <c r="AU4" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="AV4" s="5"/>
+      <c r="AU4" s="7">
+        <v>2140</v>
+      </c>
+      <c r="AV4" s="21" t="s">
+        <v>467</v>
+      </c>
       <c r="AW4" s="5"/>
       <c r="AX4" s="5"/>
       <c r="AY4" s="5"/>
@@ -2578,8 +2596,9 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
       <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
     </row>
-    <row r="5" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -2609,21 +2628,21 @@
         <v>67</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="M5" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="17">
+      <c r="O5" s="17">
         <v>1</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="P5" s="17"/>
       <c r="Q5" s="8" t="s">
         <v>68</v>
       </c>
@@ -2631,7 +2650,7 @@
         <v>68</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T5" s="8" t="s">
         <v>69</v>
@@ -2640,7 +2659,7 @@
         <v>69</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W5" s="8" t="s">
         <v>70</v>
@@ -2649,25 +2668,25 @@
         <v>70</v>
       </c>
       <c r="Y5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="AA5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="8" t="s">
+      <c r="AB5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB5" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE5" s="7">
-        <v>79826997850</v>
+      <c r="AE5" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF5" s="7">
         <v>79826997850</v>
@@ -2675,38 +2694,38 @@
       <c r="AG5" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AH5" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AL5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM5" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN5" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO5" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP5" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ5" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR5" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR5" s="7">
-        <v>2200</v>
       </c>
       <c r="AS5" s="7">
         <v>2200</v>
@@ -2714,10 +2733,12 @@
       <c r="AT5" s="7">
         <v>2200</v>
       </c>
-      <c r="AU5" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="AV5" s="5"/>
+      <c r="AU5" s="7">
+        <v>2200</v>
+      </c>
+      <c r="AV5" s="21" t="s">
+        <v>468</v>
+      </c>
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
       <c r="AY5" s="5"/>
@@ -2726,8 +2747,9 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
     </row>
-    <row r="6" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -2757,22 +2779,22 @@
         <v>72</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="17">
+      <c r="O6" s="17">
         <v>1</v>
       </c>
-      <c r="O6" s="17">
+      <c r="P6" s="17">
         <v>2</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>73</v>
@@ -2781,7 +2803,7 @@
         <v>73</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>74</v>
@@ -2790,7 +2812,7 @@
         <v>74</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W6" s="8" t="s">
         <v>75</v>
@@ -2799,25 +2821,25 @@
         <v>75</v>
       </c>
       <c r="Y6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="AA6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AB6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC6" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE6" s="7">
-        <v>79826997850</v>
+      <c r="AE6" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF6" s="7">
         <v>79826997850</v>
@@ -2825,38 +2847,38 @@
       <c r="AG6" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AH6" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AJ6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AK6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AL6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL6" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM6" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN6" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO6" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ6" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR6" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR6" s="7">
-        <v>2200</v>
       </c>
       <c r="AS6" s="7">
         <v>2200</v>
@@ -2864,10 +2886,12 @@
       <c r="AT6" s="7">
         <v>2200</v>
       </c>
-      <c r="AU6" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="AV6" s="5"/>
+      <c r="AU6" s="7">
+        <v>2200</v>
+      </c>
+      <c r="AV6" s="21" t="s">
+        <v>469</v>
+      </c>
       <c r="AW6" s="5"/>
       <c r="AX6" s="5"/>
       <c r="AY6" s="5"/>
@@ -2876,8 +2900,9 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
       <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
     </row>
-    <row r="7" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -2907,19 +2932,19 @@
         <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="17"/>
       <c r="O7" s="17"/>
-      <c r="P7" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="P7" s="17"/>
       <c r="Q7" s="8" t="s">
         <v>78</v>
       </c>
@@ -2927,7 +2952,7 @@
         <v>78</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>79</v>
@@ -2936,7 +2961,7 @@
         <v>79</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W7" s="8" t="s">
         <v>80</v>
@@ -2945,25 +2970,25 @@
         <v>80</v>
       </c>
       <c r="Y7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA7" s="8" t="s">
+      <c r="AB7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE7" s="7">
-        <v>79826997850</v>
+      <c r="AE7" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF7" s="7">
         <v>79826997850</v>
@@ -2971,38 +2996,38 @@
       <c r="AG7" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AH7" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI7" s="9" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="9" t="s">
+      <c r="AK7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK7" s="9" t="s">
+      <c r="AL7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL7" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM7" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN7" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO7" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ7" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR7" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR7" s="7">
-        <v>2200</v>
       </c>
       <c r="AS7" s="7">
         <v>2200</v>
@@ -3010,10 +3035,12 @@
       <c r="AT7" s="7">
         <v>2200</v>
       </c>
-      <c r="AU7" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="AV7" s="5"/>
+      <c r="AU7" s="7">
+        <v>2200</v>
+      </c>
+      <c r="AV7" s="21" t="s">
+        <v>470</v>
+      </c>
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
       <c r="AY7" s="5"/>
@@ -3022,8 +3049,9 @@
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
     </row>
-    <row r="8" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
@@ -3053,22 +3081,22 @@
         <v>82</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="M8" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="17">
+      <c r="O8" s="17">
         <v>1</v>
       </c>
-      <c r="O8" s="17">
+      <c r="P8" s="17">
         <v>3</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>78</v>
@@ -3077,7 +3105,7 @@
         <v>78</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>83</v>
@@ -3086,7 +3114,7 @@
         <v>83</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W8" s="8" t="s">
         <v>84</v>
@@ -3095,25 +3123,25 @@
         <v>84</v>
       </c>
       <c r="Y8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="AA8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA8" s="8" t="s">
+      <c r="AB8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE8" s="7">
-        <v>79826997850</v>
+      <c r="AE8" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF8" s="7">
         <v>79826997850</v>
@@ -3121,38 +3149,38 @@
       <c r="AG8" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH8" s="9" t="s">
+      <c r="AH8" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI8" s="9" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ8" s="9" t="s">
+      <c r="AK8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK8" s="9" t="s">
+      <c r="AL8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL8" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM8" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN8" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO8" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ8" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR8" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR8" s="7">
-        <v>2200</v>
       </c>
       <c r="AS8" s="7">
         <v>2200</v>
@@ -3160,10 +3188,12 @@
       <c r="AT8" s="7">
         <v>2200</v>
       </c>
-      <c r="AU8" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV8" s="5"/>
+      <c r="AU8" s="7">
+        <v>2200</v>
+      </c>
+      <c r="AV8" s="21" t="s">
+        <v>494</v>
+      </c>
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
@@ -3172,8 +3202,9 @@
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
       <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
     </row>
-    <row r="9" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
@@ -3203,22 +3234,22 @@
         <v>87</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="17">
+      <c r="O9" s="17">
         <v>4</v>
       </c>
-      <c r="O9" s="17">
+      <c r="P9" s="17">
         <v>3</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>88</v>
@@ -3227,7 +3258,7 @@
         <v>88</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T9" s="8" t="s">
         <v>89</v>
@@ -3236,7 +3267,7 @@
         <v>89</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W9" s="8" t="s">
         <v>90</v>
@@ -3245,25 +3276,25 @@
         <v>90</v>
       </c>
       <c r="Y9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z9" s="8" t="s">
+      <c r="AA9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA9" s="8" t="s">
+      <c r="AB9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB9" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC9" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE9" s="7">
-        <v>79826997850</v>
+      <c r="AE9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF9" s="7">
         <v>79826997850</v>
@@ -3271,38 +3302,38 @@
       <c r="AG9" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH9" s="9" t="s">
+      <c r="AH9" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI9" s="9" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ9" s="9" t="s">
+      <c r="AK9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK9" s="9" t="s">
+      <c r="AL9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL9" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM9" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO9" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP9" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ9" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR9" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR9" s="7">
-        <v>2440</v>
       </c>
       <c r="AS9" s="7">
         <v>2440</v>
@@ -3310,10 +3341,12 @@
       <c r="AT9" s="7">
         <v>2440</v>
       </c>
-      <c r="AU9" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV9" s="5"/>
+      <c r="AU9" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV9" s="21" t="s">
+        <v>494</v>
+      </c>
       <c r="AW9" s="5"/>
       <c r="AX9" s="5"/>
       <c r="AY9" s="5"/>
@@ -3322,8 +3355,9 @@
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
     </row>
-    <row r="10" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -3353,22 +3387,22 @@
         <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="17">
+      <c r="O10" s="17">
         <v>3</v>
       </c>
-      <c r="O10" s="17">
+      <c r="P10" s="17">
         <v>2</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>94</v>
@@ -3377,7 +3411,7 @@
         <v>94</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T10" s="8" t="s">
         <v>95</v>
@@ -3386,7 +3420,7 @@
         <v>95</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W10" s="8" t="s">
         <v>96</v>
@@ -3395,25 +3429,25 @@
         <v>96</v>
       </c>
       <c r="Y10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z10" s="8" t="s">
+      <c r="AA10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA10" s="8" t="s">
+      <c r="AB10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB10" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="7">
-        <v>79826997850</v>
+      <c r="AE10" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF10" s="7">
         <v>79826997850</v>
@@ -3421,38 +3455,38 @@
       <c r="AG10" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH10" s="9" t="s">
+      <c r="AH10" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" s="9" t="s">
+      <c r="AJ10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ10" s="9" t="s">
+      <c r="AK10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK10" s="9" t="s">
+      <c r="AL10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL10" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM10" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ10" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ10" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR10" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR10" s="7">
-        <v>2440</v>
       </c>
       <c r="AS10" s="7">
         <v>2440</v>
@@ -3460,10 +3494,12 @@
       <c r="AT10" s="7">
         <v>2440</v>
       </c>
-      <c r="AU10" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV10" s="5"/>
+      <c r="AU10" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV10" s="21" t="s">
+        <v>494</v>
+      </c>
       <c r="AW10" s="5"/>
       <c r="AX10" s="5"/>
       <c r="AY10" s="5"/>
@@ -3472,8 +3508,9 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
     </row>
-    <row r="11" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -3503,19 +3540,19 @@
         <v>98</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="N11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="17"/>
       <c r="O11" s="17"/>
-      <c r="P11" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="P11" s="17"/>
       <c r="Q11" s="8" t="s">
         <v>99</v>
       </c>
@@ -3523,7 +3560,7 @@
         <v>99</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>100</v>
@@ -3532,7 +3569,7 @@
         <v>100</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W11" s="8" t="s">
         <v>101</v>
@@ -3541,25 +3578,25 @@
         <v>101</v>
       </c>
       <c r="Y11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="AA11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA11" s="8" t="s">
+      <c r="AB11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB11" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE11" s="7">
-        <v>79826997850</v>
+      <c r="AE11" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF11" s="7">
         <v>79826997850</v>
@@ -3567,38 +3604,38 @@
       <c r="AG11" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH11" s="9" t="s">
+      <c r="AH11" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI11" s="9" t="s">
+      <c r="AJ11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ11" s="9" t="s">
+      <c r="AK11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK11" s="9" t="s">
+      <c r="AL11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL11" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM11" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO11" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP11" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ11" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ11" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR11" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR11" s="7">
-        <v>2440</v>
       </c>
       <c r="AS11" s="7">
         <v>2440</v>
@@ -3606,10 +3643,12 @@
       <c r="AT11" s="7">
         <v>2440</v>
       </c>
-      <c r="AU11" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV11" s="5"/>
+      <c r="AU11" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV11" s="21" t="s">
+        <v>494</v>
+      </c>
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
       <c r="AY11" s="5"/>
@@ -3618,8 +3657,9 @@
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
     </row>
-    <row r="12" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -3649,22 +3689,22 @@
         <v>103</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="17">
+      <c r="O12" s="17">
         <v>7</v>
       </c>
-      <c r="O12" s="17">
+      <c r="P12" s="17">
         <v>3</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>104</v>
@@ -3673,7 +3713,7 @@
         <v>104</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>105</v>
@@ -3682,7 +3722,7 @@
         <v>105</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W12" s="8" t="s">
         <v>106</v>
@@ -3691,25 +3731,25 @@
         <v>106</v>
       </c>
       <c r="Y12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="AA12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA12" s="8" t="s">
+      <c r="AB12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB12" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC12" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE12" s="7">
-        <v>79826997850</v>
+      <c r="AE12" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF12" s="7">
         <v>79826997850</v>
@@ -3717,38 +3757,38 @@
       <c r="AG12" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH12" s="9" t="s">
+      <c r="AH12" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI12" s="9" t="s">
+      <c r="AJ12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ12" s="9" t="s">
+      <c r="AK12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK12" s="9" t="s">
+      <c r="AL12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL12" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM12" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO12" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP12" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ12" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ12" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR12" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR12" s="7">
-        <v>2440</v>
       </c>
       <c r="AS12" s="7">
         <v>2440</v>
@@ -3756,10 +3796,12 @@
       <c r="AT12" s="7">
         <v>2440</v>
       </c>
-      <c r="AU12" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV12" s="5"/>
+      <c r="AU12" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV12" s="21" t="s">
+        <v>494</v>
+      </c>
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
@@ -3768,8 +3810,9 @@
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
       <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
     </row>
-    <row r="13" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -3799,19 +3842,19 @@
         <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="M13" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="17"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="P13" s="17"/>
       <c r="Q13" s="8" t="s">
         <v>109</v>
       </c>
@@ -3819,7 +3862,7 @@
         <v>109</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T13" s="8" t="s">
         <v>110</v>
@@ -3828,7 +3871,7 @@
         <v>110</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W13" s="8" t="s">
         <v>111</v>
@@ -3837,25 +3880,25 @@
         <v>111</v>
       </c>
       <c r="Y13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="AA13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA13" s="8" t="s">
+      <c r="AB13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB13" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE13" s="7">
-        <v>79826997850</v>
+      <c r="AE13" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF13" s="7">
         <v>79826997850</v>
@@ -3863,38 +3906,38 @@
       <c r="AG13" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH13" s="9" t="s">
+      <c r="AH13" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI13" s="9" t="s">
+      <c r="AJ13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ13" s="9" t="s">
+      <c r="AK13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK13" s="9" t="s">
+      <c r="AL13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL13" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM13" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO13" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP13" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ13" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ13" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR13" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR13" s="7">
-        <v>2440</v>
       </c>
       <c r="AS13" s="7">
         <v>2440</v>
@@ -3902,10 +3945,12 @@
       <c r="AT13" s="7">
         <v>2440</v>
       </c>
-      <c r="AU13" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV13" s="5"/>
+      <c r="AU13" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV13" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="5"/>
@@ -3914,8 +3959,9 @@
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
     </row>
-    <row r="14" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
@@ -3945,19 +3991,19 @@
         <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="M14" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="17"/>
       <c r="O14" s="17"/>
-      <c r="P14" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="P14" s="17"/>
       <c r="Q14" s="8" t="s">
         <v>115</v>
       </c>
@@ -3965,7 +4011,7 @@
         <v>115</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>116</v>
@@ -3974,7 +4020,7 @@
         <v>116</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>117</v>
@@ -3983,25 +4029,25 @@
         <v>117</v>
       </c>
       <c r="Y14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z14" s="8" t="s">
+      <c r="AA14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA14" s="8" t="s">
+      <c r="AB14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB14" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE14" s="7">
-        <v>79826997850</v>
+      <c r="AE14" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF14" s="7">
         <v>79826997850</v>
@@ -4009,38 +4055,38 @@
       <c r="AG14" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH14" s="9" t="s">
+      <c r="AH14" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI14" s="9" t="s">
+      <c r="AJ14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ14" s="9" t="s">
+      <c r="AK14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK14" s="9" t="s">
+      <c r="AL14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL14" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM14" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO14" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP14" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ14" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ14" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR14" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR14" s="7">
-        <v>2440</v>
       </c>
       <c r="AS14" s="7">
         <v>2440</v>
@@ -4048,10 +4094,12 @@
       <c r="AT14" s="7">
         <v>2440</v>
       </c>
-      <c r="AU14" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV14" s="5"/>
+      <c r="AU14" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV14" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
@@ -4060,8 +4108,9 @@
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
     </row>
-    <row r="15" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
@@ -4091,19 +4140,19 @@
         <v>120</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="M15" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="17"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="P15" s="17"/>
       <c r="Q15" s="8" t="s">
         <v>121</v>
       </c>
@@ -4111,7 +4160,7 @@
         <v>121</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T15" s="8" t="s">
         <v>122</v>
@@ -4120,7 +4169,7 @@
         <v>122</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W15" s="8" t="s">
         <v>123</v>
@@ -4129,25 +4178,25 @@
         <v>123</v>
       </c>
       <c r="Y15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z15" s="8" t="s">
+      <c r="AA15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="8" t="s">
+      <c r="AB15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB15" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE15" s="7">
-        <v>79826997850</v>
+      <c r="AE15" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF15" s="7">
         <v>79826997850</v>
@@ -4155,38 +4204,38 @@
       <c r="AG15" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH15" s="9" t="s">
+      <c r="AH15" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI15" s="9" t="s">
+      <c r="AJ15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ15" s="9" t="s">
+      <c r="AK15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK15" s="9" t="s">
+      <c r="AL15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL15" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM15" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO15" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP15" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ15" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ15" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR15" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR15" s="7">
-        <v>3450</v>
       </c>
       <c r="AS15" s="7">
         <v>3450</v>
@@ -4194,10 +4243,12 @@
       <c r="AT15" s="7">
         <v>3450</v>
       </c>
-      <c r="AU15" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV15" s="5"/>
+      <c r="AU15" s="7">
+        <v>3450</v>
+      </c>
+      <c r="AV15" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="AW15" s="5"/>
       <c r="AX15" s="5"/>
       <c r="AY15" s="5"/>
@@ -4206,8 +4257,9 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
     </row>
-    <row r="16" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
@@ -4237,19 +4289,19 @@
         <v>125</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="M16" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="17"/>
       <c r="O16" s="17"/>
-      <c r="P16" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="P16" s="17"/>
       <c r="Q16" s="8" t="s">
         <v>126</v>
       </c>
@@ -4257,7 +4309,7 @@
         <v>126</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>127</v>
@@ -4266,7 +4318,7 @@
         <v>127</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W16" s="8" t="s">
         <v>128</v>
@@ -4275,25 +4327,25 @@
         <v>128</v>
       </c>
       <c r="Y16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z16" s="8" t="s">
+      <c r="AA16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA16" s="8" t="s">
+      <c r="AB16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB16" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE16" s="7">
-        <v>79826997850</v>
+      <c r="AE16" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF16" s="7">
         <v>79826997850</v>
@@ -4301,38 +4353,38 @@
       <c r="AG16" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH16" s="9" t="s">
+      <c r="AH16" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI16" s="9" t="s">
+      <c r="AJ16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ16" s="9" t="s">
+      <c r="AK16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK16" s="9" t="s">
+      <c r="AL16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL16" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM16" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN16" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO16" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP16" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ16" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ16" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR16" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR16" s="7">
-        <v>2440</v>
       </c>
       <c r="AS16" s="7">
         <v>2440</v>
@@ -4340,10 +4392,12 @@
       <c r="AT16" s="7">
         <v>2440</v>
       </c>
-      <c r="AU16" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV16" s="5"/>
+      <c r="AU16" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV16" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="5"/>
@@ -4352,8 +4406,9 @@
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
     </row>
-    <row r="17" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -4383,19 +4438,19 @@
         <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="M17" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="17"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="P17" s="17"/>
       <c r="Q17" s="8" t="s">
         <v>132</v>
       </c>
@@ -4403,7 +4458,7 @@
         <v>132</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>133</v>
@@ -4412,7 +4467,7 @@
         <v>133</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W17" s="8" t="s">
         <v>134</v>
@@ -4421,25 +4476,25 @@
         <v>134</v>
       </c>
       <c r="Y17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z17" s="8" t="s">
+      <c r="AA17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA17" s="8" t="s">
+      <c r="AB17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB17" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE17" s="7">
-        <v>79826997850</v>
+      <c r="AE17" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF17" s="7">
         <v>79826997850</v>
@@ -4447,38 +4502,38 @@
       <c r="AG17" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH17" s="9" t="s">
+      <c r="AH17" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI17" s="9" t="s">
+      <c r="AJ17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ17" s="9" t="s">
+      <c r="AK17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK17" s="9" t="s">
+      <c r="AL17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL17" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM17" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN17" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO17" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP17" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ17" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ17" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR17" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR17" s="7">
-        <v>2440</v>
       </c>
       <c r="AS17" s="7">
         <v>2440</v>
@@ -4486,10 +4541,12 @@
       <c r="AT17" s="7">
         <v>2440</v>
       </c>
-      <c r="AU17" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV17" s="5"/>
+      <c r="AU17" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV17" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
@@ -4498,8 +4555,9 @@
       <c r="BB17" s="5"/>
       <c r="BC17" s="5"/>
       <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
     </row>
-    <row r="18" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -4529,19 +4587,19 @@
         <v>136</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="M18" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="17"/>
       <c r="O18" s="17"/>
-      <c r="P18" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="P18" s="17"/>
       <c r="Q18" s="8" t="s">
         <v>137</v>
       </c>
@@ -4549,7 +4607,7 @@
         <v>137</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T18" s="8" t="s">
         <v>138</v>
@@ -4558,7 +4616,7 @@
         <v>138</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W18" s="8" t="s">
         <v>139</v>
@@ -4567,25 +4625,25 @@
         <v>139</v>
       </c>
       <c r="Y18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z18" s="8" t="s">
+      <c r="AA18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA18" s="8" t="s">
+      <c r="AB18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB18" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE18" s="7">
-        <v>79826997850</v>
+      <c r="AE18" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF18" s="7">
         <v>79826997850</v>
@@ -4593,38 +4651,38 @@
       <c r="AG18" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH18" s="9" t="s">
+      <c r="AH18" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI18" s="9" t="s">
+      <c r="AJ18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ18" s="9" t="s">
+      <c r="AK18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK18" s="9" t="s">
+      <c r="AL18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL18" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM18" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ18" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ18" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR18" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR18" s="7">
-        <v>2440</v>
       </c>
       <c r="AS18" s="7">
         <v>2440</v>
@@ -4632,10 +4690,12 @@
       <c r="AT18" s="7">
         <v>2440</v>
       </c>
-      <c r="AU18" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV18" s="5"/>
+      <c r="AU18" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV18" s="22" t="s">
+        <v>494</v>
+      </c>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
       <c r="AY18" s="5"/>
@@ -4644,8 +4704,9 @@
       <c r="BB18" s="5"/>
       <c r="BC18" s="5"/>
       <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
     </row>
-    <row r="19" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
@@ -4675,19 +4736,19 @@
         <v>142</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="M19" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="17"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="P19" s="17"/>
       <c r="Q19" s="8" t="s">
         <v>143</v>
       </c>
@@ -4695,7 +4756,7 @@
         <v>143</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>144</v>
@@ -4704,7 +4765,7 @@
         <v>144</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W19" s="8" t="s">
         <v>145</v>
@@ -4713,25 +4774,25 @@
         <v>145</v>
       </c>
       <c r="Y19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z19" s="8" t="s">
+      <c r="AA19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA19" s="8" t="s">
+      <c r="AB19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB19" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE19" s="7">
-        <v>79826997850</v>
+      <c r="AE19" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF19" s="7">
         <v>79826997850</v>
@@ -4739,38 +4800,38 @@
       <c r="AG19" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH19" s="9" t="s">
+      <c r="AH19" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI19" s="9" t="s">
+      <c r="AJ19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ19" s="9" t="s">
+      <c r="AK19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK19" s="9" t="s">
+      <c r="AL19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL19" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM19" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN19" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO19" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP19" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ19" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ19" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR19" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR19" s="7">
-        <v>2440</v>
       </c>
       <c r="AS19" s="7">
         <v>2440</v>
@@ -4778,10 +4839,12 @@
       <c r="AT19" s="7">
         <v>2440</v>
       </c>
-      <c r="AU19" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV19" s="5"/>
+      <c r="AU19" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV19" s="22" t="s">
+        <v>494</v>
+      </c>
       <c r="AW19" s="5"/>
       <c r="AX19" s="5"/>
       <c r="AY19" s="5"/>
@@ -4790,8 +4853,9 @@
       <c r="BB19" s="5"/>
       <c r="BC19" s="5"/>
       <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
     </row>
-    <row r="20" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
@@ -4821,19 +4885,19 @@
         <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="M20" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="17"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="P20" s="17"/>
       <c r="Q20" s="8" t="s">
         <v>148</v>
       </c>
@@ -4841,7 +4905,7 @@
         <v>148</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T20" s="8" t="s">
         <v>149</v>
@@ -4850,7 +4914,7 @@
         <v>149</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W20" s="8" t="s">
         <v>150</v>
@@ -4859,25 +4923,25 @@
         <v>150</v>
       </c>
       <c r="Y20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z20" s="8" t="s">
+      <c r="AA20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA20" s="8" t="s">
+      <c r="AB20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB20" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC20" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE20" s="7">
-        <v>79826997850</v>
+      <c r="AE20" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF20" s="7">
         <v>79826997850</v>
@@ -4885,38 +4949,38 @@
       <c r="AG20" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH20" s="9" t="s">
+      <c r="AH20" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI20" s="9" t="s">
+      <c r="AJ20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ20" s="9" t="s">
+      <c r="AK20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK20" s="9" t="s">
+      <c r="AL20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL20" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM20" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN20" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO20" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP20" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ20" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR20" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR20" s="7">
-        <v>2440</v>
       </c>
       <c r="AS20" s="7">
         <v>2440</v>
@@ -4924,10 +4988,12 @@
       <c r="AT20" s="7">
         <v>2440</v>
       </c>
-      <c r="AU20" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV20" s="5"/>
+      <c r="AU20" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV20" s="22" t="s">
+        <v>494</v>
+      </c>
       <c r="AW20" s="5"/>
       <c r="AX20" s="5"/>
       <c r="AY20" s="5"/>
@@ -4936,8 +5002,9 @@
       <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
     </row>
-    <row r="21" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
@@ -4967,19 +5034,19 @@
         <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="M21" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="17"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="8" t="s">
-        <v>155</v>
-      </c>
+      <c r="P21" s="17"/>
       <c r="Q21" s="8" t="s">
         <v>155</v>
       </c>
@@ -4987,7 +5054,7 @@
         <v>155</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T21" s="8" t="s">
         <v>156</v>
@@ -4996,7 +5063,7 @@
         <v>156</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W21" s="8" t="s">
         <v>157</v>
@@ -5005,25 +5072,25 @@
         <v>157</v>
       </c>
       <c r="Y21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="8" t="s">
+      <c r="AA21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA21" s="8" t="s">
+      <c r="AB21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB21" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE21" s="7">
-        <v>79826997850</v>
+      <c r="AE21" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF21" s="7">
         <v>79826997850</v>
@@ -5031,38 +5098,38 @@
       <c r="AG21" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH21" s="9" t="s">
+      <c r="AH21" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI21" s="9" t="s">
+      <c r="AJ21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ21" s="9" t="s">
+      <c r="AK21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK21" s="9" t="s">
+      <c r="AL21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL21" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="AM21" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AN21" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AO21" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP21" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ21" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ21" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR21" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR21" s="7">
-        <v>2440</v>
       </c>
       <c r="AS21" s="7">
         <v>2440</v>
@@ -5070,10 +5137,12 @@
       <c r="AT21" s="7">
         <v>2440</v>
       </c>
-      <c r="AU21" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV21" s="5"/>
+      <c r="AU21" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV21" s="22" t="s">
+        <v>494</v>
+      </c>
       <c r="AW21" s="5"/>
       <c r="AX21" s="5"/>
       <c r="AY21" s="5"/>
@@ -5082,8 +5151,9 @@
       <c r="BB21" s="5"/>
       <c r="BC21" s="5"/>
       <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
     </row>
-    <row r="22" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
@@ -5113,19 +5183,19 @@
         <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="M22" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="N22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="17"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="P22" s="17"/>
       <c r="Q22" s="8" t="s">
         <v>161</v>
       </c>
@@ -5133,7 +5203,7 @@
         <v>161</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T22" s="8" t="s">
         <v>162</v>
@@ -5142,7 +5212,7 @@
         <v>162</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W22" s="8" t="s">
         <v>163</v>
@@ -5151,25 +5221,25 @@
         <v>163</v>
       </c>
       <c r="Y22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z22" s="8" t="s">
+      <c r="AA22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA22" s="8" t="s">
+      <c r="AB22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB22" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE22" s="7">
-        <v>79826997850</v>
+      <c r="AE22" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF22" s="7">
         <v>79826997850</v>
@@ -5177,36 +5247,36 @@
       <c r="AG22" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH22" s="9" t="s">
+      <c r="AH22" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI22" s="9" t="s">
+      <c r="AJ22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ22" s="9" t="s">
+      <c r="AK22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK22" s="9" t="s">
+      <c r="AL22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL22" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10" t="s">
-        <v>470</v>
-      </c>
+      <c r="AM22" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN22" s="10"/>
       <c r="AO22" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP22" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ22" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ22" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR22" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR22" s="7">
-        <v>2120</v>
       </c>
       <c r="AS22" s="7">
         <v>2120</v>
@@ -5214,10 +5284,12 @@
       <c r="AT22" s="7">
         <v>2120</v>
       </c>
-      <c r="AU22" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV22" s="5"/>
+      <c r="AU22" s="7">
+        <v>2120</v>
+      </c>
+      <c r="AV22" s="22" t="s">
+        <v>494</v>
+      </c>
       <c r="AW22" s="5"/>
       <c r="AX22" s="5"/>
       <c r="AY22" s="5"/>
@@ -5226,8 +5298,9 @@
       <c r="BB22" s="5"/>
       <c r="BC22" s="5"/>
       <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
     </row>
-    <row r="23" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
@@ -5257,19 +5330,19 @@
         <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="M23" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="N23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="17"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="8" t="s">
-        <v>167</v>
-      </c>
+      <c r="P23" s="17"/>
       <c r="Q23" s="8" t="s">
         <v>167</v>
       </c>
@@ -5277,7 +5350,7 @@
         <v>167</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>168</v>
@@ -5286,7 +5359,7 @@
         <v>168</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W23" s="8" t="s">
         <v>169</v>
@@ -5295,25 +5368,25 @@
         <v>169</v>
       </c>
       <c r="Y23" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" s="8" t="s">
+      <c r="AA23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA23" s="8" t="s">
+      <c r="AB23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB23" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC23" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE23" s="7">
-        <v>79826997850</v>
+      <c r="AE23" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF23" s="7">
         <v>79826997850</v>
@@ -5321,36 +5394,36 @@
       <c r="AG23" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH23" s="9" t="s">
+      <c r="AH23" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI23" s="9" t="s">
+      <c r="AJ23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ23" s="9" t="s">
+      <c r="AK23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK23" s="9" t="s">
+      <c r="AL23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL23" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10" t="s">
-        <v>470</v>
-      </c>
+      <c r="AM23" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN23" s="10"/>
       <c r="AO23" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AP23" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ23" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ23" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR23" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR23" s="7">
-        <v>1880</v>
       </c>
       <c r="AS23" s="7">
         <v>1880</v>
@@ -5358,10 +5431,12 @@
       <c r="AT23" s="7">
         <v>1880</v>
       </c>
-      <c r="AU23" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="AV23" s="5"/>
+      <c r="AU23" s="7">
+        <v>1880</v>
+      </c>
+      <c r="AV23" s="22" t="s">
+        <v>471</v>
+      </c>
       <c r="AW23" s="5"/>
       <c r="AX23" s="5"/>
       <c r="AY23" s="5"/>
@@ -5370,8 +5445,9 @@
       <c r="BB23" s="5"/>
       <c r="BC23" s="5"/>
       <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
     </row>
-    <row r="24" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
@@ -5401,19 +5477,19 @@
         <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="M24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="17"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="P24" s="17"/>
       <c r="Q24" s="8" t="s">
         <v>173</v>
       </c>
@@ -5421,7 +5497,7 @@
         <v>173</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>174</v>
@@ -5430,7 +5506,7 @@
         <v>174</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W24" s="8" t="s">
         <v>175</v>
@@ -5439,25 +5515,25 @@
         <v>175</v>
       </c>
       <c r="Y24" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z24" s="8" t="s">
+      <c r="AA24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA24" s="8" t="s">
+      <c r="AB24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB24" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC24" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE24" s="7">
-        <v>79826997850</v>
+      <c r="AE24" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF24" s="7">
         <v>79826997850</v>
@@ -5465,34 +5541,34 @@
       <c r="AG24" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH24" s="9" t="s">
+      <c r="AH24" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI24" s="9" t="s">
+      <c r="AJ24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ24" s="9" t="s">
+      <c r="AK24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK24" s="9" t="s">
+      <c r="AL24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL24" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM24" s="10"/>
+      <c r="AM24" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN24" s="10"/>
-      <c r="AO24" s="10" t="s">
-        <v>471</v>
-      </c>
+      <c r="AO24" s="10"/>
       <c r="AP24" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ24" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ24" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR24" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR24" s="7">
-        <v>2110</v>
       </c>
       <c r="AS24" s="7">
         <v>2110</v>
@@ -5500,10 +5576,12 @@
       <c r="AT24" s="7">
         <v>2110</v>
       </c>
-      <c r="AU24" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="AV24" s="5"/>
+      <c r="AU24" s="7">
+        <v>2110</v>
+      </c>
+      <c r="AV24" s="22" t="s">
+        <v>472</v>
+      </c>
       <c r="AW24" s="5"/>
       <c r="AX24" s="5"/>
       <c r="AY24" s="5"/>
@@ -5512,8 +5590,9 @@
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
       <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
     </row>
-    <row r="25" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -5543,19 +5622,19 @@
         <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="M25" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="N25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="17"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="P25" s="17"/>
       <c r="Q25" s="8" t="s">
         <v>179</v>
       </c>
@@ -5563,7 +5642,7 @@
         <v>179</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>180</v>
@@ -5572,7 +5651,7 @@
         <v>180</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W25" s="8" t="s">
         <v>181</v>
@@ -5581,25 +5660,25 @@
         <v>181</v>
       </c>
       <c r="Y25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z25" s="8" t="s">
+      <c r="AA25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA25" s="8" t="s">
+      <c r="AB25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB25" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC25" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE25" s="7">
-        <v>79826997850</v>
+      <c r="AE25" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF25" s="7">
         <v>79826997850</v>
@@ -5607,34 +5686,34 @@
       <c r="AG25" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH25" s="9" t="s">
+      <c r="AH25" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI25" s="9" t="s">
+      <c r="AJ25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ25" s="9" t="s">
+      <c r="AK25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK25" s="9" t="s">
+      <c r="AL25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL25" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM25" s="10"/>
+      <c r="AM25" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN25" s="10"/>
-      <c r="AO25" s="10" t="s">
-        <v>471</v>
-      </c>
+      <c r="AO25" s="10"/>
       <c r="AP25" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ25" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ25" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR25" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR25" s="7">
-        <v>2300</v>
       </c>
       <c r="AS25" s="7">
         <v>2300</v>
@@ -5642,10 +5721,12 @@
       <c r="AT25" s="7">
         <v>2300</v>
       </c>
-      <c r="AU25" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="AV25" s="5"/>
+      <c r="AU25" s="7">
+        <v>2300</v>
+      </c>
+      <c r="AV25" s="22" t="s">
+        <v>473</v>
+      </c>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
@@ -5654,8 +5735,9 @@
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
       <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
     </row>
-    <row r="26" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -5685,19 +5767,19 @@
         <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="M26" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N26" s="17"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="P26" s="17"/>
       <c r="Q26" s="8" t="s">
         <v>186</v>
       </c>
@@ -5705,7 +5787,7 @@
         <v>186</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>187</v>
@@ -5714,7 +5796,7 @@
         <v>187</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W26" s="8" t="s">
         <v>188</v>
@@ -5723,25 +5805,25 @@
         <v>188</v>
       </c>
       <c r="Y26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z26" s="8" t="s">
+      <c r="AA26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA26" s="8" t="s">
+      <c r="AB26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB26" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC26" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE26" s="7">
-        <v>79826997850</v>
+      <c r="AE26" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF26" s="7">
         <v>79826997850</v>
@@ -5749,32 +5831,32 @@
       <c r="AG26" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH26" s="9" t="s">
+      <c r="AH26" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI26" s="9" t="s">
+      <c r="AJ26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ26" s="9" t="s">
+      <c r="AK26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK26" s="9" t="s">
+      <c r="AL26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL26" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM26" s="10"/>
+      <c r="AM26" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN26" s="10"/>
       <c r="AO26" s="10"/>
-      <c r="AP26" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ26" s="9" t="s">
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR26" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR26" s="7">
-        <v>2140</v>
       </c>
       <c r="AS26" s="7">
         <v>2140</v>
@@ -5782,10 +5864,12 @@
       <c r="AT26" s="7">
         <v>2140</v>
       </c>
-      <c r="AU26" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="AV26" s="5"/>
+      <c r="AU26" s="7">
+        <v>2140</v>
+      </c>
+      <c r="AV26" s="22" t="s">
+        <v>474</v>
+      </c>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
       <c r="AY26" s="5"/>
@@ -5794,8 +5878,9 @@
       <c r="BB26" s="5"/>
       <c r="BC26" s="5"/>
       <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
     </row>
-    <row r="27" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -5825,19 +5910,19 @@
         <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="M27" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="17"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="P27" s="17"/>
       <c r="Q27" s="8" t="s">
         <v>191</v>
       </c>
@@ -5845,7 +5930,7 @@
         <v>191</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>192</v>
@@ -5854,7 +5939,7 @@
         <v>192</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W27" s="8" t="s">
         <v>193</v>
@@ -5863,25 +5948,25 @@
         <v>193</v>
       </c>
       <c r="Y27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z27" s="8" t="s">
+      <c r="AA27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA27" s="8" t="s">
+      <c r="AB27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB27" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC27" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE27" s="7">
-        <v>79826997850</v>
+      <c r="AE27" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF27" s="7">
         <v>79826997850</v>
@@ -5889,32 +5974,32 @@
       <c r="AG27" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH27" s="9" t="s">
+      <c r="AH27" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI27" s="9" t="s">
+      <c r="AJ27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ27" s="9" t="s">
+      <c r="AK27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK27" s="9" t="s">
+      <c r="AL27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL27" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM27" s="10"/>
+      <c r="AM27" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN27" s="10"/>
       <c r="AO27" s="10"/>
-      <c r="AP27" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ27" s="9" t="s">
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR27" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR27" s="7">
-        <v>2140</v>
       </c>
       <c r="AS27" s="7">
         <v>2140</v>
@@ -5922,10 +6007,12 @@
       <c r="AT27" s="7">
         <v>2140</v>
       </c>
-      <c r="AU27" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="AV27" s="5"/>
+      <c r="AU27" s="7">
+        <v>2140</v>
+      </c>
+      <c r="AV27" s="22" t="s">
+        <v>475</v>
+      </c>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
       <c r="AY27" s="5"/>
@@ -5934,8 +6021,9 @@
       <c r="BB27" s="5"/>
       <c r="BC27" s="5"/>
       <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
     </row>
-    <row r="28" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
@@ -5965,19 +6053,19 @@
         <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="M28" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="17"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="8" t="s">
-        <v>197</v>
-      </c>
+      <c r="P28" s="17"/>
       <c r="Q28" s="8" t="s">
         <v>197</v>
       </c>
@@ -5985,7 +6073,7 @@
         <v>197</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T28" s="8" t="s">
         <v>198</v>
@@ -5994,7 +6082,7 @@
         <v>198</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W28" s="8" t="s">
         <v>199</v>
@@ -6003,25 +6091,25 @@
         <v>199</v>
       </c>
       <c r="Y28" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" s="8" t="s">
+      <c r="AA28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA28" s="8" t="s">
+      <c r="AB28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB28" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC28" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE28" s="7">
-        <v>79826997850</v>
+      <c r="AE28" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF28" s="7">
         <v>79826997850</v>
@@ -6029,32 +6117,32 @@
       <c r="AG28" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH28" s="9" t="s">
+      <c r="AH28" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI28" s="9" t="s">
+      <c r="AJ28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ28" s="9" t="s">
+      <c r="AK28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK28" s="9" t="s">
+      <c r="AL28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL28" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM28" s="10"/>
+      <c r="AM28" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN28" s="10"/>
       <c r="AO28" s="10"/>
-      <c r="AP28" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ28" s="9" t="s">
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR28" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR28" s="7">
-        <v>2200</v>
       </c>
       <c r="AS28" s="7">
         <v>2200</v>
@@ -6062,10 +6150,12 @@
       <c r="AT28" s="7">
         <v>2200</v>
       </c>
-      <c r="AU28" s="24" t="s">
-        <v>484</v>
-      </c>
-      <c r="AV28" s="5"/>
+      <c r="AU28" s="7">
+        <v>2200</v>
+      </c>
+      <c r="AV28" s="24" t="s">
+        <v>476</v>
+      </c>
       <c r="AW28" s="5"/>
       <c r="AX28" s="5"/>
       <c r="AY28" s="5"/>
@@ -6074,8 +6164,9 @@
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
     </row>
-    <row r="29" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
@@ -6105,19 +6196,19 @@
         <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="M29" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="N29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="17"/>
       <c r="O29" s="17"/>
-      <c r="P29" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="P29" s="17"/>
       <c r="Q29" s="8" t="s">
         <v>202</v>
       </c>
@@ -6125,7 +6216,7 @@
         <v>202</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T29" s="8" t="s">
         <v>203</v>
@@ -6134,7 +6225,7 @@
         <v>203</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W29" s="8" t="s">
         <v>204</v>
@@ -6143,25 +6234,25 @@
         <v>204</v>
       </c>
       <c r="Y29" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" s="8" t="s">
+      <c r="AA29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA29" s="8" t="s">
+      <c r="AB29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB29" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC29" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE29" s="7">
-        <v>79826997850</v>
+      <c r="AE29" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF29" s="7">
         <v>79826997850</v>
@@ -6169,32 +6260,32 @@
       <c r="AG29" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH29" s="9" t="s">
+      <c r="AH29" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI29" s="9" t="s">
+      <c r="AJ29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ29" s="9" t="s">
+      <c r="AK29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK29" s="9" t="s">
+      <c r="AL29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL29" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM29" s="10"/>
+      <c r="AM29" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN29" s="10"/>
       <c r="AO29" s="10"/>
-      <c r="AP29" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ29" s="9" t="s">
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR29" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR29" s="7">
-        <v>2200</v>
       </c>
       <c r="AS29" s="7">
         <v>2200</v>
@@ -6202,10 +6293,12 @@
       <c r="AT29" s="7">
         <v>2200</v>
       </c>
-      <c r="AU29" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="AV29" s="5"/>
+      <c r="AU29" s="7">
+        <v>2200</v>
+      </c>
+      <c r="AV29" s="24" t="s">
+        <v>477</v>
+      </c>
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
       <c r="AY29" s="5"/>
@@ -6214,8 +6307,9 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="5"/>
       <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
     </row>
-    <row r="30" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>36</v>
       </c>
@@ -6245,19 +6339,19 @@
         <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="M30" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="N30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="8" t="s">
-        <v>207</v>
-      </c>
+      <c r="P30" s="17"/>
       <c r="Q30" s="8" t="s">
         <v>207</v>
       </c>
@@ -6265,7 +6359,7 @@
         <v>207</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T30" s="8" t="s">
         <v>208</v>
@@ -6274,7 +6368,7 @@
         <v>208</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W30" s="8" t="s">
         <v>209</v>
@@ -6283,25 +6377,25 @@
         <v>209</v>
       </c>
       <c r="Y30" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z30" s="8" t="s">
+      <c r="AA30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA30" s="8" t="s">
+      <c r="AB30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB30" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC30" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE30" s="7">
-        <v>79826997850</v>
+      <c r="AE30" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF30" s="7">
         <v>79826997850</v>
@@ -6309,32 +6403,32 @@
       <c r="AG30" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH30" s="9" t="s">
+      <c r="AH30" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI30" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI30" s="9" t="s">
+      <c r="AJ30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ30" s="9" t="s">
+      <c r="AK30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK30" s="9" t="s">
+      <c r="AL30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL30" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM30" s="10"/>
+      <c r="AM30" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN30" s="10"/>
       <c r="AO30" s="10"/>
-      <c r="AP30" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ30" s="9" t="s">
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR30" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR30" s="7">
-        <v>2290</v>
       </c>
       <c r="AS30" s="7">
         <v>2290</v>
@@ -6342,10 +6436,12 @@
       <c r="AT30" s="7">
         <v>2290</v>
       </c>
-      <c r="AU30" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="AV30" s="5"/>
+      <c r="AU30" s="7">
+        <v>2290</v>
+      </c>
+      <c r="AV30" s="24" t="s">
+        <v>478</v>
+      </c>
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
@@ -6354,8 +6450,9 @@
       <c r="BB30" s="5"/>
       <c r="BC30" s="5"/>
       <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
     </row>
-    <row r="31" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
@@ -6385,19 +6482,19 @@
         <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="M31" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="17"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="P31" s="17"/>
       <c r="Q31" s="8" t="s">
         <v>212</v>
       </c>
@@ -6405,7 +6502,7 @@
         <v>212</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T31" s="8" t="s">
         <v>213</v>
@@ -6414,7 +6511,7 @@
         <v>213</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W31" s="8" t="s">
         <v>214</v>
@@ -6423,25 +6520,25 @@
         <v>214</v>
       </c>
       <c r="Y31" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z31" s="8" t="s">
+      <c r="AA31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA31" s="8" t="s">
+      <c r="AB31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB31" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC31" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE31" s="7">
-        <v>79826997850</v>
+      <c r="AE31" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF31" s="7">
         <v>79826997850</v>
@@ -6449,32 +6546,32 @@
       <c r="AG31" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH31" s="9" t="s">
+      <c r="AH31" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI31" s="9" t="s">
+      <c r="AJ31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ31" s="9" t="s">
+      <c r="AK31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK31" s="9" t="s">
+      <c r="AL31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL31" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM31" s="10"/>
+      <c r="AM31" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN31" s="10"/>
       <c r="AO31" s="10"/>
-      <c r="AP31" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ31" s="9" t="s">
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR31" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR31" s="7">
-        <v>3060</v>
       </c>
       <c r="AS31" s="7">
         <v>3060</v>
@@ -6482,10 +6579,12 @@
       <c r="AT31" s="7">
         <v>3060</v>
       </c>
-      <c r="AU31" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV31" s="5"/>
+      <c r="AU31" s="7">
+        <v>3060</v>
+      </c>
+      <c r="AV31" s="24" t="s">
+        <v>479</v>
+      </c>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
       <c r="AY31" s="5"/>
@@ -6494,8 +6593,9 @@
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
       <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
     </row>
-    <row r="32" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -6525,19 +6625,19 @@
         <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="M32" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="N32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="17"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="P32" s="17"/>
       <c r="Q32" s="8" t="s">
         <v>218</v>
       </c>
@@ -6545,7 +6645,7 @@
         <v>218</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T32" s="8" t="s">
         <v>219</v>
@@ -6554,7 +6654,7 @@
         <v>219</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W32" s="8" t="s">
         <v>220</v>
@@ -6563,25 +6663,25 @@
         <v>220</v>
       </c>
       <c r="Y32" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z32" s="8" t="s">
+      <c r="AA32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA32" s="8" t="s">
+      <c r="AB32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB32" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC32" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE32" s="7">
-        <v>79826997850</v>
+      <c r="AE32" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF32" s="7">
         <v>79826997850</v>
@@ -6589,32 +6689,32 @@
       <c r="AG32" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH32" s="9" t="s">
+      <c r="AH32" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI32" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI32" s="9" t="s">
+      <c r="AJ32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ32" s="9" t="s">
+      <c r="AK32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK32" s="9" t="s">
+      <c r="AL32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL32" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM32" s="10"/>
+      <c r="AM32" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
-      <c r="AP32" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ32" s="9" t="s">
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR32" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR32" s="7">
-        <v>2290</v>
       </c>
       <c r="AS32" s="7">
         <v>2290</v>
@@ -6622,10 +6722,12 @@
       <c r="AT32" s="7">
         <v>2290</v>
       </c>
-      <c r="AU32" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="AV32" s="5"/>
+      <c r="AU32" s="7">
+        <v>2290</v>
+      </c>
+      <c r="AV32" s="24" t="s">
+        <v>480</v>
+      </c>
       <c r="AW32" s="5"/>
       <c r="AX32" s="5"/>
       <c r="AY32" s="5"/>
@@ -6634,8 +6736,9 @@
       <c r="BB32" s="5"/>
       <c r="BC32" s="5"/>
       <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
     </row>
-    <row r="33" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -6665,19 +6768,19 @@
         <v>222</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="M33" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="N33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N33" s="17"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="P33" s="17"/>
       <c r="Q33" s="8" t="s">
         <v>223</v>
       </c>
@@ -6685,7 +6788,7 @@
         <v>223</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T33" s="8" t="s">
         <v>224</v>
@@ -6694,7 +6797,7 @@
         <v>224</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W33" s="8" t="s">
         <v>225</v>
@@ -6703,25 +6806,25 @@
         <v>225</v>
       </c>
       <c r="Y33" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z33" s="8" t="s">
+      <c r="AA33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA33" s="8" t="s">
+      <c r="AB33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB33" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC33" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE33" s="7">
-        <v>79826997850</v>
+      <c r="AE33" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF33" s="7">
         <v>79826997850</v>
@@ -6729,32 +6832,32 @@
       <c r="AG33" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH33" s="9" t="s">
+      <c r="AH33" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI33" s="9" t="s">
+      <c r="AJ33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ33" s="9" t="s">
+      <c r="AK33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK33" s="9" t="s">
+      <c r="AL33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL33" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM33" s="10"/>
+      <c r="AM33" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN33" s="10"/>
       <c r="AO33" s="10"/>
-      <c r="AP33" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ33" s="9" t="s">
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR33" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR33" s="7">
-        <v>2290</v>
       </c>
       <c r="AS33" s="7">
         <v>2290</v>
@@ -6762,10 +6865,12 @@
       <c r="AT33" s="7">
         <v>2290</v>
       </c>
-      <c r="AU33" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV33" s="5"/>
+      <c r="AU33" s="7">
+        <v>2290</v>
+      </c>
+      <c r="AV33" s="24" t="s">
+        <v>494</v>
+      </c>
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
       <c r="AY33" s="5"/>
@@ -6774,8 +6879,9 @@
       <c r="BB33" s="5"/>
       <c r="BC33" s="5"/>
       <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
     </row>
-    <row r="34" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
@@ -6805,19 +6911,19 @@
         <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="M34" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="N34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="17"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="P34" s="17"/>
       <c r="Q34" s="8" t="s">
         <v>228</v>
       </c>
@@ -6825,7 +6931,7 @@
         <v>228</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T34" s="8" t="s">
         <v>229</v>
@@ -6834,7 +6940,7 @@
         <v>229</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W34" s="8" t="s">
         <v>230</v>
@@ -6843,25 +6949,25 @@
         <v>230</v>
       </c>
       <c r="Y34" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z34" s="8" t="s">
+      <c r="AA34" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA34" s="8" t="s">
+      <c r="AB34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB34" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC34" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE34" s="7">
-        <v>79826997850</v>
+      <c r="AE34" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF34" s="7">
         <v>79826997850</v>
@@ -6869,32 +6975,32 @@
       <c r="AG34" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH34" s="9" t="s">
+      <c r="AH34" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI34" s="9" t="s">
+      <c r="AJ34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ34" s="9" t="s">
+      <c r="AK34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK34" s="9" t="s">
+      <c r="AL34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL34" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM34" s="10"/>
+      <c r="AM34" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN34" s="10"/>
       <c r="AO34" s="10"/>
-      <c r="AP34" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ34" s="9" t="s">
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR34" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR34" s="7">
-        <v>2290</v>
       </c>
       <c r="AS34" s="7">
         <v>2290</v>
@@ -6902,10 +7008,12 @@
       <c r="AT34" s="7">
         <v>2290</v>
       </c>
-      <c r="AU34" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV34" s="5"/>
+      <c r="AU34" s="7">
+        <v>2290</v>
+      </c>
+      <c r="AV34" s="24" t="s">
+        <v>494</v>
+      </c>
       <c r="AW34" s="5"/>
       <c r="AX34" s="5"/>
       <c r="AY34" s="5"/>
@@ -6914,8 +7022,9 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
     </row>
-    <row r="35" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -6945,19 +7054,19 @@
         <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="M35" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="N35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N35" s="17"/>
       <c r="O35" s="17"/>
-      <c r="P35" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="P35" s="17"/>
       <c r="Q35" s="8" t="s">
         <v>233</v>
       </c>
@@ -6965,7 +7074,7 @@
         <v>233</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T35" s="8" t="s">
         <v>234</v>
@@ -6974,7 +7083,7 @@
         <v>234</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W35" s="8" t="s">
         <v>235</v>
@@ -6983,25 +7092,25 @@
         <v>235</v>
       </c>
       <c r="Y35" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z35" s="8" t="s">
+      <c r="AA35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA35" s="8" t="s">
+      <c r="AB35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB35" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC35" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE35" s="7">
-        <v>79826997850</v>
+      <c r="AE35" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF35" s="7">
         <v>79826997850</v>
@@ -7009,32 +7118,32 @@
       <c r="AG35" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH35" s="9" t="s">
+      <c r="AH35" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI35" s="9" t="s">
+      <c r="AJ35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ35" s="9" t="s">
+      <c r="AK35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK35" s="9" t="s">
+      <c r="AL35" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL35" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM35" s="10"/>
+      <c r="AM35" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN35" s="10"/>
       <c r="AO35" s="10"/>
-      <c r="AP35" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ35" s="9" t="s">
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR35" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR35" s="7">
-        <v>2290</v>
       </c>
       <c r="AS35" s="7">
         <v>2290</v>
@@ -7042,10 +7151,12 @@
       <c r="AT35" s="7">
         <v>2290</v>
       </c>
-      <c r="AU35" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV35" s="5"/>
+      <c r="AU35" s="7">
+        <v>2290</v>
+      </c>
+      <c r="AV35" s="24" t="s">
+        <v>494</v>
+      </c>
       <c r="AW35" s="5"/>
       <c r="AX35" s="5"/>
       <c r="AY35" s="5"/>
@@ -7054,8 +7165,9 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
     </row>
-    <row r="36" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -7085,19 +7197,19 @@
         <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="M36" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="N36" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N36" s="17"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="8" t="s">
-        <v>239</v>
-      </c>
+      <c r="P36" s="17"/>
       <c r="Q36" s="8" t="s">
         <v>239</v>
       </c>
@@ -7105,7 +7217,7 @@
         <v>239</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T36" s="8" t="s">
         <v>240</v>
@@ -7114,7 +7226,7 @@
         <v>240</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W36" s="8" t="s">
         <v>241</v>
@@ -7123,25 +7235,25 @@
         <v>241</v>
       </c>
       <c r="Y36" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z36" s="8" t="s">
+      <c r="AA36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA36" s="8" t="s">
+      <c r="AB36" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB36" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC36" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE36" s="7">
-        <v>79826997850</v>
+      <c r="AE36" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF36" s="7">
         <v>79826997850</v>
@@ -7149,32 +7261,32 @@
       <c r="AG36" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH36" s="9" t="s">
+      <c r="AH36" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI36" s="9" t="s">
+      <c r="AJ36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ36" s="9" t="s">
+      <c r="AK36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK36" s="9" t="s">
+      <c r="AL36" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL36" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM36" s="10"/>
+      <c r="AM36" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN36" s="10"/>
       <c r="AO36" s="10"/>
-      <c r="AP36" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ36" s="9" t="s">
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR36" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR36" s="7">
-        <v>2440</v>
       </c>
       <c r="AS36" s="7">
         <v>2440</v>
@@ -7182,10 +7294,12 @@
       <c r="AT36" s="7">
         <v>2440</v>
       </c>
-      <c r="AU36" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV36" s="5"/>
+      <c r="AU36" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV36" s="24" t="s">
+        <v>494</v>
+      </c>
       <c r="AW36" s="5"/>
       <c r="AX36" s="5"/>
       <c r="AY36" s="5"/>
@@ -7194,8 +7308,9 @@
       <c r="BB36" s="5"/>
       <c r="BC36" s="5"/>
       <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
     </row>
-    <row r="37" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -7225,19 +7340,19 @@
         <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="M37" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="N37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N37" s="17"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="P37" s="17"/>
       <c r="Q37" s="8" t="s">
         <v>245</v>
       </c>
@@ -7245,7 +7360,7 @@
         <v>245</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T37" s="8" t="s">
         <v>246</v>
@@ -7254,7 +7369,7 @@
         <v>246</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W37" s="8" t="s">
         <v>247</v>
@@ -7263,25 +7378,25 @@
         <v>247</v>
       </c>
       <c r="Y37" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z37" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z37" s="8" t="s">
+      <c r="AA37" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA37" s="8" t="s">
+      <c r="AB37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB37" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC37" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD37" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE37" s="7">
-        <v>79826997850</v>
+      <c r="AE37" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF37" s="7">
         <v>79826997850</v>
@@ -7289,32 +7404,32 @@
       <c r="AG37" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH37" s="9" t="s">
+      <c r="AH37" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI37" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI37" s="9" t="s">
+      <c r="AJ37" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ37" s="9" t="s">
+      <c r="AK37" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK37" s="9" t="s">
+      <c r="AL37" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL37" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM37" s="10"/>
+      <c r="AM37" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN37" s="10"/>
       <c r="AO37" s="10"/>
-      <c r="AP37" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ37" s="9" t="s">
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR37" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR37" s="7">
-        <v>2290</v>
       </c>
       <c r="AS37" s="7">
         <v>2290</v>
@@ -7322,10 +7437,12 @@
       <c r="AT37" s="7">
         <v>2290</v>
       </c>
-      <c r="AU37" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV37" s="5"/>
+      <c r="AU37" s="7">
+        <v>2290</v>
+      </c>
+      <c r="AV37" s="24" t="s">
+        <v>494</v>
+      </c>
       <c r="AW37" s="5"/>
       <c r="AX37" s="5"/>
       <c r="AY37" s="5"/>
@@ -7334,8 +7451,9 @@
       <c r="BB37" s="5"/>
       <c r="BC37" s="5"/>
       <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
     </row>
-    <row r="38" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -7365,19 +7483,19 @@
         <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="M38" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="N38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="17"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="8" t="s">
-        <v>250</v>
-      </c>
+      <c r="P38" s="17"/>
       <c r="Q38" s="8" t="s">
         <v>250</v>
       </c>
@@ -7385,7 +7503,7 @@
         <v>250</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T38" s="8" t="s">
         <v>251</v>
@@ -7394,7 +7512,7 @@
         <v>251</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W38" s="8" t="s">
         <v>252</v>
@@ -7403,25 +7521,25 @@
         <v>252</v>
       </c>
       <c r="Y38" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z38" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z38" s="8" t="s">
+      <c r="AA38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA38" s="8" t="s">
+      <c r="AB38" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB38" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC38" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD38" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE38" s="7">
-        <v>79826997850</v>
+      <c r="AE38" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF38" s="7">
         <v>79826997850</v>
@@ -7429,32 +7547,32 @@
       <c r="AG38" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH38" s="9" t="s">
+      <c r="AH38" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI38" s="9" t="s">
+      <c r="AJ38" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ38" s="9" t="s">
+      <c r="AK38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK38" s="9" t="s">
+      <c r="AL38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL38" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM38" s="10"/>
+      <c r="AM38" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN38" s="10"/>
       <c r="AO38" s="10"/>
-      <c r="AP38" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ38" s="9" t="s">
+      <c r="AP38" s="10"/>
+      <c r="AQ38" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR38" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR38" s="7">
-        <v>2290</v>
       </c>
       <c r="AS38" s="7">
         <v>2290</v>
@@ -7462,10 +7580,12 @@
       <c r="AT38" s="7">
         <v>2290</v>
       </c>
-      <c r="AU38" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV38" s="5"/>
+      <c r="AU38" s="7">
+        <v>2290</v>
+      </c>
+      <c r="AV38" s="23" t="s">
+        <v>494</v>
+      </c>
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
       <c r="AY38" s="5"/>
@@ -7474,8 +7594,9 @@
       <c r="BB38" s="5"/>
       <c r="BC38" s="5"/>
       <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
     </row>
-    <row r="39" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>36</v>
       </c>
@@ -7505,19 +7626,19 @@
         <v>255</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="M39" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="N39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N39" s="17"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="8" t="s">
-        <v>256</v>
-      </c>
+      <c r="P39" s="17"/>
       <c r="Q39" s="8" t="s">
         <v>256</v>
       </c>
@@ -7525,7 +7646,7 @@
         <v>256</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T39" s="8" t="s">
         <v>257</v>
@@ -7534,7 +7655,7 @@
         <v>257</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W39" s="8" t="s">
         <v>258</v>
@@ -7543,25 +7664,25 @@
         <v>258</v>
       </c>
       <c r="Y39" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z39" s="8" t="s">
+      <c r="AA39" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA39" s="8" t="s">
+      <c r="AB39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB39" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC39" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD39" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE39" s="7">
-        <v>79826997850</v>
+      <c r="AE39" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF39" s="7">
         <v>79826997850</v>
@@ -7569,32 +7690,32 @@
       <c r="AG39" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH39" s="9" t="s">
+      <c r="AH39" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI39" s="9" t="s">
+      <c r="AJ39" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ39" s="9" t="s">
+      <c r="AK39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK39" s="9" t="s">
+      <c r="AL39" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL39" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM39" s="10"/>
+      <c r="AM39" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN39" s="10"/>
       <c r="AO39" s="10"/>
-      <c r="AP39" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ39" s="9" t="s">
+      <c r="AP39" s="10"/>
+      <c r="AQ39" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR39" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR39" s="7">
-        <v>2610</v>
       </c>
       <c r="AS39" s="7">
         <v>2610</v>
@@ -7602,10 +7723,12 @@
       <c r="AT39" s="7">
         <v>2610</v>
       </c>
-      <c r="AU39" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV39" s="5"/>
+      <c r="AU39" s="7">
+        <v>2610</v>
+      </c>
+      <c r="AV39" s="23" t="s">
+        <v>494</v>
+      </c>
       <c r="AW39" s="5"/>
       <c r="AX39" s="5"/>
       <c r="AY39" s="5"/>
@@ -7614,8 +7737,9 @@
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
       <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
     </row>
-    <row r="40" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
@@ -7645,19 +7769,19 @@
         <v>261</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="M40" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="N40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N40" s="17"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="8" t="s">
-        <v>262</v>
-      </c>
+      <c r="P40" s="17"/>
       <c r="Q40" s="8" t="s">
         <v>262</v>
       </c>
@@ -7665,7 +7789,7 @@
         <v>262</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T40" s="8" t="s">
         <v>263</v>
@@ -7674,7 +7798,7 @@
         <v>263</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W40" s="8" t="s">
         <v>264</v>
@@ -7683,25 +7807,25 @@
         <v>264</v>
       </c>
       <c r="Y40" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z40" s="8" t="s">
+      <c r="AA40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA40" s="8" t="s">
+      <c r="AB40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB40" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC40" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE40" s="7">
-        <v>79826997850</v>
+      <c r="AE40" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF40" s="7">
         <v>79826997850</v>
@@ -7709,32 +7833,32 @@
       <c r="AG40" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH40" s="9" t="s">
+      <c r="AH40" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI40" s="9" t="s">
+      <c r="AJ40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ40" s="9" t="s">
+      <c r="AK40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK40" s="9" t="s">
+      <c r="AL40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL40" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM40" s="10"/>
+      <c r="AM40" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN40" s="10"/>
       <c r="AO40" s="10"/>
-      <c r="AP40" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ40" s="9" t="s">
+      <c r="AP40" s="10"/>
+      <c r="AQ40" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR40" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR40" s="7">
-        <v>2350</v>
       </c>
       <c r="AS40" s="7">
         <v>2350</v>
@@ -7742,10 +7866,12 @@
       <c r="AT40" s="7">
         <v>2350</v>
       </c>
-      <c r="AU40" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV40" s="5"/>
+      <c r="AU40" s="7">
+        <v>2350</v>
+      </c>
+      <c r="AV40" s="23" t="s">
+        <v>494</v>
+      </c>
       <c r="AW40" s="5"/>
       <c r="AX40" s="5"/>
       <c r="AY40" s="5"/>
@@ -7754,8 +7880,9 @@
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
     </row>
-    <row r="41" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>36</v>
       </c>
@@ -7785,19 +7912,19 @@
         <v>266</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="M41" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="N41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N41" s="17"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="8" t="s">
-        <v>267</v>
-      </c>
+      <c r="P41" s="17"/>
       <c r="Q41" s="8" t="s">
         <v>267</v>
       </c>
@@ -7805,7 +7932,7 @@
         <v>267</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T41" s="8" t="s">
         <v>268</v>
@@ -7814,7 +7941,7 @@
         <v>268</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W41" s="8" t="s">
         <v>269</v>
@@ -7823,25 +7950,25 @@
         <v>269</v>
       </c>
       <c r="Y41" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z41" s="8" t="s">
+      <c r="AA41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA41" s="8" t="s">
+      <c r="AB41" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB41" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC41" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE41" s="7">
-        <v>79826997850</v>
+      <c r="AE41" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF41" s="7">
         <v>79826997850</v>
@@ -7849,32 +7976,32 @@
       <c r="AG41" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH41" s="9" t="s">
+      <c r="AH41" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI41" s="9" t="s">
+      <c r="AJ41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ41" s="9" t="s">
+      <c r="AK41" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK41" s="9" t="s">
+      <c r="AL41" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL41" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM41" s="10"/>
+      <c r="AM41" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN41" s="10"/>
       <c r="AO41" s="10"/>
-      <c r="AP41" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ41" s="9" t="s">
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR41" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR41" s="7">
-        <v>2350</v>
       </c>
       <c r="AS41" s="7">
         <v>2350</v>
@@ -7882,10 +8009,12 @@
       <c r="AT41" s="7">
         <v>2350</v>
       </c>
-      <c r="AU41" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV41" s="5"/>
+      <c r="AU41" s="7">
+        <v>2350</v>
+      </c>
+      <c r="AV41" s="23" t="s">
+        <v>494</v>
+      </c>
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
       <c r="AY41" s="5"/>
@@ -7894,8 +8023,9 @@
       <c r="BB41" s="5"/>
       <c r="BC41" s="5"/>
       <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
     </row>
-    <row r="42" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
@@ -7925,19 +8055,19 @@
         <v>271</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="M42" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="N42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N42" s="17"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="8" t="s">
-        <v>272</v>
-      </c>
+      <c r="P42" s="17"/>
       <c r="Q42" s="8" t="s">
         <v>272</v>
       </c>
@@ -7945,7 +8075,7 @@
         <v>272</v>
       </c>
       <c r="S42" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>273</v>
@@ -7954,7 +8084,7 @@
         <v>273</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W42" s="8" t="s">
         <v>274</v>
@@ -7963,25 +8093,25 @@
         <v>274</v>
       </c>
       <c r="Y42" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z42" s="8" t="s">
+      <c r="AA42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA42" s="8" t="s">
+      <c r="AB42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB42" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC42" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD42" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE42" s="7">
-        <v>79826997850</v>
+      <c r="AE42" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF42" s="7">
         <v>79826997850</v>
@@ -7989,32 +8119,32 @@
       <c r="AG42" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH42" s="9" t="s">
+      <c r="AH42" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI42" s="9" t="s">
+      <c r="AJ42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ42" s="9" t="s">
+      <c r="AK42" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK42" s="9" t="s">
+      <c r="AL42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL42" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM42" s="10"/>
+      <c r="AM42" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN42" s="10"/>
       <c r="AO42" s="10"/>
-      <c r="AP42" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ42" s="9" t="s">
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR42" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR42" s="7">
-        <v>2350</v>
       </c>
       <c r="AS42" s="7">
         <v>2350</v>
@@ -8022,10 +8152,12 @@
       <c r="AT42" s="7">
         <v>2350</v>
       </c>
-      <c r="AU42" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="AV42" s="5"/>
+      <c r="AU42" s="7">
+        <v>2350</v>
+      </c>
+      <c r="AV42" s="23" t="s">
+        <v>494</v>
+      </c>
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
       <c r="AY42" s="5"/>
@@ -8034,8 +8166,9 @@
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
       <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
     </row>
-    <row r="43" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
@@ -8065,19 +8198,19 @@
         <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="M43" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="N43" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N43" s="17"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="8" t="s">
-        <v>278</v>
-      </c>
+      <c r="P43" s="17"/>
       <c r="Q43" s="8" t="s">
         <v>278</v>
       </c>
@@ -8085,7 +8218,7 @@
         <v>278</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T43" s="8" t="s">
         <v>279</v>
@@ -8094,7 +8227,7 @@
         <v>279</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W43" s="8" t="s">
         <v>280</v>
@@ -8103,25 +8236,25 @@
         <v>280</v>
       </c>
       <c r="Y43" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z43" s="8" t="s">
+      <c r="AA43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA43" s="8" t="s">
+      <c r="AB43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB43" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC43" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE43" s="7">
-        <v>79826997850</v>
+      <c r="AE43" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF43" s="7">
         <v>79826997850</v>
@@ -8129,32 +8262,32 @@
       <c r="AG43" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH43" s="9" t="s">
+      <c r="AH43" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI43" s="9" t="s">
+      <c r="AJ43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ43" s="9" t="s">
+      <c r="AK43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK43" s="9" t="s">
+      <c r="AL43" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL43" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM43" s="10"/>
+      <c r="AM43" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN43" s="10"/>
       <c r="AO43" s="10"/>
-      <c r="AP43" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ43" s="9" t="s">
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR43" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR43" s="7">
-        <v>2440</v>
       </c>
       <c r="AS43" s="7">
         <v>2440</v>
@@ -8162,10 +8295,12 @@
       <c r="AT43" s="7">
         <v>2440</v>
       </c>
-      <c r="AU43" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="AV43" s="5"/>
+      <c r="AU43" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV43" s="23" t="s">
+        <v>481</v>
+      </c>
       <c r="AW43" s="5"/>
       <c r="AX43" s="5"/>
       <c r="AY43" s="5"/>
@@ -8174,8 +8309,9 @@
       <c r="BB43" s="5"/>
       <c r="BC43" s="5"/>
       <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
     </row>
-    <row r="44" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -8205,19 +8341,19 @@
         <v>282</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="M44" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="N44" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N44" s="17"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="8" t="s">
-        <v>283</v>
-      </c>
+      <c r="P44" s="17"/>
       <c r="Q44" s="8" t="s">
         <v>283</v>
       </c>
@@ -8225,7 +8361,7 @@
         <v>283</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T44" s="8" t="s">
         <v>284</v>
@@ -8234,7 +8370,7 @@
         <v>284</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W44" s="8" t="s">
         <v>285</v>
@@ -8243,25 +8379,25 @@
         <v>285</v>
       </c>
       <c r="Y44" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z44" s="8" t="s">
+      <c r="AA44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA44" s="8" t="s">
+      <c r="AB44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB44" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC44" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD44" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE44" s="7">
-        <v>79826997850</v>
+      <c r="AE44" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF44" s="7">
         <v>79826997850</v>
@@ -8269,32 +8405,32 @@
       <c r="AG44" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH44" s="9" t="s">
+      <c r="AH44" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI44" s="9" t="s">
+      <c r="AJ44" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ44" s="9" t="s">
+      <c r="AK44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK44" s="9" t="s">
+      <c r="AL44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL44" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM44" s="10"/>
+      <c r="AM44" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN44" s="10"/>
       <c r="AO44" s="10"/>
-      <c r="AP44" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ44" s="9" t="s">
+      <c r="AP44" s="10"/>
+      <c r="AQ44" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR44" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR44" s="7">
-        <v>2700</v>
       </c>
       <c r="AS44" s="7">
         <v>2700</v>
@@ -8302,10 +8438,12 @@
       <c r="AT44" s="7">
         <v>2700</v>
       </c>
-      <c r="AU44" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="AV44" s="5"/>
+      <c r="AU44" s="7">
+        <v>2700</v>
+      </c>
+      <c r="AV44" s="23" t="s">
+        <v>482</v>
+      </c>
       <c r="AW44" s="5"/>
       <c r="AX44" s="5"/>
       <c r="AY44" s="5"/>
@@ -8314,8 +8452,9 @@
       <c r="BB44" s="5"/>
       <c r="BC44" s="5"/>
       <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
     </row>
-    <row r="45" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
@@ -8345,19 +8484,19 @@
         <v>288</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="M45" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="N45" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N45" s="17"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="8" t="s">
-        <v>289</v>
-      </c>
+      <c r="P45" s="17"/>
       <c r="Q45" s="8" t="s">
         <v>289</v>
       </c>
@@ -8365,7 +8504,7 @@
         <v>289</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T45" s="8" t="s">
         <v>290</v>
@@ -8374,7 +8513,7 @@
         <v>290</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W45" s="8" t="s">
         <v>291</v>
@@ -8383,25 +8522,25 @@
         <v>291</v>
       </c>
       <c r="Y45" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z45" s="8" t="s">
+      <c r="AA45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA45" s="8" t="s">
+      <c r="AB45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB45" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC45" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD45" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE45" s="7">
-        <v>79826997850</v>
+      <c r="AE45" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF45" s="7">
         <v>79826997850</v>
@@ -8409,32 +8548,32 @@
       <c r="AG45" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH45" s="9" t="s">
+      <c r="AH45" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI45" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI45" s="9" t="s">
+      <c r="AJ45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ45" s="9" t="s">
+      <c r="AK45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK45" s="9" t="s">
+      <c r="AL45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL45" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM45" s="10"/>
+      <c r="AM45" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
-      <c r="AP45" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ45" s="9" t="s">
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR45" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR45" s="7">
-        <v>2440</v>
       </c>
       <c r="AS45" s="7">
         <v>2440</v>
@@ -8442,10 +8581,12 @@
       <c r="AT45" s="7">
         <v>2440</v>
       </c>
-      <c r="AU45" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="AV45" s="5"/>
+      <c r="AU45" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV45" s="23" t="s">
+        <v>483</v>
+      </c>
       <c r="AW45" s="5"/>
       <c r="AX45" s="5"/>
       <c r="AY45" s="5"/>
@@ -8454,8 +8595,9 @@
       <c r="BB45" s="5"/>
       <c r="BC45" s="5"/>
       <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
     </row>
-    <row r="46" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
@@ -8485,19 +8627,19 @@
         <v>293</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="M46" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N46" s="17"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="8" t="s">
-        <v>294</v>
-      </c>
+      <c r="P46" s="17"/>
       <c r="Q46" s="8" t="s">
         <v>294</v>
       </c>
@@ -8505,7 +8647,7 @@
         <v>294</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>295</v>
@@ -8514,7 +8656,7 @@
         <v>295</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W46" s="8" t="s">
         <v>296</v>
@@ -8523,25 +8665,25 @@
         <v>296</v>
       </c>
       <c r="Y46" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z46" s="8" t="s">
+      <c r="AA46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA46" s="8" t="s">
+      <c r="AB46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB46" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC46" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE46" s="7">
-        <v>79826997850</v>
+      <c r="AE46" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF46" s="7">
         <v>79826997850</v>
@@ -8549,32 +8691,32 @@
       <c r="AG46" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH46" s="9" t="s">
+      <c r="AH46" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI46" s="9" t="s">
+      <c r="AJ46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ46" s="9" t="s">
+      <c r="AK46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK46" s="9" t="s">
+      <c r="AL46" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL46" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM46" s="10"/>
+      <c r="AM46" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN46" s="10"/>
       <c r="AO46" s="10"/>
-      <c r="AP46" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ46" s="9" t="s">
+      <c r="AP46" s="10"/>
+      <c r="AQ46" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR46" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR46" s="7">
-        <v>2440</v>
       </c>
       <c r="AS46" s="7">
         <v>2440</v>
@@ -8582,10 +8724,12 @@
       <c r="AT46" s="7">
         <v>2440</v>
       </c>
-      <c r="AU46" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="AV46" s="5"/>
+      <c r="AU46" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV46" s="23" t="s">
+        <v>484</v>
+      </c>
       <c r="AW46" s="5"/>
       <c r="AX46" s="5"/>
       <c r="AY46" s="5"/>
@@ -8594,8 +8738,9 @@
       <c r="BB46" s="5"/>
       <c r="BC46" s="5"/>
       <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
     </row>
-    <row r="47" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>36</v>
       </c>
@@ -8625,19 +8770,19 @@
         <v>298</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="M47" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="N47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N47" s="17"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="8" t="s">
-        <v>299</v>
-      </c>
+      <c r="P47" s="17"/>
       <c r="Q47" s="8" t="s">
         <v>299</v>
       </c>
@@ -8645,7 +8790,7 @@
         <v>299</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T47" s="8" t="s">
         <v>300</v>
@@ -8654,7 +8799,7 @@
         <v>300</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W47" s="8" t="s">
         <v>301</v>
@@ -8663,25 +8808,25 @@
         <v>301</v>
       </c>
       <c r="Y47" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z47" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z47" s="8" t="s">
+      <c r="AA47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA47" s="8" t="s">
+      <c r="AB47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB47" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC47" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD47" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE47" s="7">
-        <v>79826997850</v>
+      <c r="AE47" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF47" s="7">
         <v>79826997850</v>
@@ -8689,32 +8834,32 @@
       <c r="AG47" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH47" s="9" t="s">
+      <c r="AH47" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI47" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI47" s="9" t="s">
+      <c r="AJ47" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ47" s="9" t="s">
+      <c r="AK47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK47" s="9" t="s">
+      <c r="AL47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL47" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM47" s="10"/>
+      <c r="AM47" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN47" s="10"/>
       <c r="AO47" s="10"/>
-      <c r="AP47" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ47" s="9" t="s">
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR47" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR47" s="7">
-        <v>2440</v>
       </c>
       <c r="AS47" s="7">
         <v>2440</v>
@@ -8722,10 +8867,12 @@
       <c r="AT47" s="7">
         <v>2440</v>
       </c>
-      <c r="AU47" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="AV47" s="5"/>
+      <c r="AU47" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV47" s="23" t="s">
+        <v>485</v>
+      </c>
       <c r="AW47" s="5"/>
       <c r="AX47" s="5"/>
       <c r="AY47" s="5"/>
@@ -8734,8 +8881,9 @@
       <c r="BB47" s="5"/>
       <c r="BC47" s="5"/>
       <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
     </row>
-    <row r="48" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>36</v>
       </c>
@@ -8765,19 +8913,19 @@
         <v>304</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="M48" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="N48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N48" s="17"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="8" t="s">
-        <v>305</v>
-      </c>
+      <c r="P48" s="17"/>
       <c r="Q48" s="8" t="s">
         <v>305</v>
       </c>
@@ -8785,7 +8933,7 @@
         <v>305</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T48" s="8" t="s">
         <v>306</v>
@@ -8794,7 +8942,7 @@
         <v>306</v>
       </c>
       <c r="V48" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W48" s="8" t="s">
         <v>307</v>
@@ -8803,25 +8951,25 @@
         <v>307</v>
       </c>
       <c r="Y48" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z48" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z48" s="8" t="s">
+      <c r="AA48" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA48" s="8" t="s">
+      <c r="AB48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB48" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC48" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD48" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE48" s="7">
-        <v>79826997850</v>
+      <c r="AE48" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF48" s="7">
         <v>79826997850</v>
@@ -8829,32 +8977,32 @@
       <c r="AG48" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH48" s="9" t="s">
+      <c r="AH48" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI48" s="9" t="s">
+      <c r="AJ48" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ48" s="9" t="s">
+      <c r="AK48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK48" s="9" t="s">
+      <c r="AL48" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL48" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM48" s="10"/>
+      <c r="AM48" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN48" s="10"/>
       <c r="AO48" s="10"/>
-      <c r="AP48" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ48" s="9" t="s">
+      <c r="AP48" s="10"/>
+      <c r="AQ48" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR48" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR48" s="7">
-        <v>2440</v>
       </c>
       <c r="AS48" s="7">
         <v>2440</v>
@@ -8862,10 +9010,12 @@
       <c r="AT48" s="7">
         <v>2440</v>
       </c>
-      <c r="AU48" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="AV48" s="5"/>
+      <c r="AU48" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV48" s="23" t="s">
+        <v>486</v>
+      </c>
       <c r="AW48" s="5"/>
       <c r="AX48" s="5"/>
       <c r="AY48" s="5"/>
@@ -8874,8 +9024,9 @@
       <c r="BB48" s="5"/>
       <c r="BC48" s="5"/>
       <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
     </row>
-    <row r="49" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>36</v>
       </c>
@@ -8889,7 +9040,7 @@
         <v>302</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F49" s="7">
         <v>3309930314</v>
@@ -8905,19 +9056,19 @@
         <v>308</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="M49" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N49" s="17"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="8" t="s">
-        <v>309</v>
-      </c>
+      <c r="P49" s="17"/>
       <c r="Q49" s="8" t="s">
         <v>309</v>
       </c>
@@ -8925,7 +9076,7 @@
         <v>309</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T49" s="8" t="s">
         <v>310</v>
@@ -8934,7 +9085,7 @@
         <v>310</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W49" s="8" t="s">
         <v>311</v>
@@ -8943,25 +9094,25 @@
         <v>311</v>
       </c>
       <c r="Y49" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z49" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z49" s="8" t="s">
+      <c r="AA49" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA49" s="8" t="s">
+      <c r="AB49" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB49" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC49" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD49" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE49" s="7">
-        <v>79826997850</v>
+      <c r="AE49" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF49" s="7">
         <v>79826997850</v>
@@ -8969,32 +9120,32 @@
       <c r="AG49" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH49" s="9" t="s">
+      <c r="AH49" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI49" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI49" s="9" t="s">
+      <c r="AJ49" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ49" s="9" t="s">
+      <c r="AK49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK49" s="9" t="s">
+      <c r="AL49" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL49" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM49" s="10"/>
+      <c r="AM49" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN49" s="10"/>
       <c r="AO49" s="10"/>
-      <c r="AP49" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ49" s="9" t="s">
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR49" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR49" s="7">
-        <v>2440</v>
       </c>
       <c r="AS49" s="7">
         <v>2440</v>
@@ -9002,10 +9153,12 @@
       <c r="AT49" s="7">
         <v>2440</v>
       </c>
-      <c r="AU49" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="AV49" s="5"/>
+      <c r="AU49" s="7">
+        <v>2440</v>
+      </c>
+      <c r="AV49" s="23" t="s">
+        <v>487</v>
+      </c>
       <c r="AW49" s="5"/>
       <c r="AX49" s="5"/>
       <c r="AY49" s="5"/>
@@ -9014,8 +9167,9 @@
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
       <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
     </row>
-    <row r="50" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>36</v>
       </c>
@@ -9045,19 +9199,19 @@
         <v>313</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="M50" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="N50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N50" s="17"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="P50" s="17"/>
       <c r="Q50" s="8" t="s">
         <v>314</v>
       </c>
@@ -9065,7 +9219,7 @@
         <v>314</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T50" s="8" t="s">
         <v>315</v>
@@ -9074,7 +9228,7 @@
         <v>315</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W50" s="8" t="s">
         <v>316</v>
@@ -9083,25 +9237,25 @@
         <v>316</v>
       </c>
       <c r="Y50" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z50" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z50" s="8" t="s">
+      <c r="AA50" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA50" s="8" t="s">
+      <c r="AB50" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB50" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC50" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD50" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE50" s="7">
-        <v>79826997850</v>
+      <c r="AE50" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF50" s="7">
         <v>79826997850</v>
@@ -9109,32 +9263,32 @@
       <c r="AG50" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH50" s="9" t="s">
+      <c r="AH50" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI50" s="9" t="s">
+      <c r="AJ50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ50" s="9" t="s">
+      <c r="AK50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK50" s="9" t="s">
+      <c r="AL50" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL50" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM50" s="10"/>
+      <c r="AM50" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN50" s="10"/>
       <c r="AO50" s="10"/>
-      <c r="AP50" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ50" s="9" t="s">
+      <c r="AP50" s="10"/>
+      <c r="AQ50" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR50" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR50" s="7">
-        <v>1780</v>
       </c>
       <c r="AS50" s="7">
         <v>1780</v>
@@ -9142,10 +9296,12 @@
       <c r="AT50" s="7">
         <v>1780</v>
       </c>
-      <c r="AU50" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="AV50" s="5"/>
+      <c r="AU50" s="7">
+        <v>1780</v>
+      </c>
+      <c r="AV50" s="23" t="s">
+        <v>488</v>
+      </c>
       <c r="AW50" s="5"/>
       <c r="AX50" s="5"/>
       <c r="AY50" s="5"/>
@@ -9154,8 +9310,9 @@
       <c r="BB50" s="5"/>
       <c r="BC50" s="5"/>
       <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
     </row>
-    <row r="51" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>36</v>
       </c>
@@ -9179,19 +9336,19 @@
         <v>320</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="M51" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N51" s="17"/>
       <c r="O51" s="17"/>
-      <c r="P51" s="8" t="s">
-        <v>321</v>
-      </c>
+      <c r="P51" s="17"/>
       <c r="Q51" s="8" t="s">
         <v>321</v>
       </c>
@@ -9199,7 +9356,7 @@
         <v>321</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>322</v>
@@ -9208,7 +9365,7 @@
         <v>322</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W51" s="8" t="s">
         <v>323</v>
@@ -9217,25 +9374,25 @@
         <v>323</v>
       </c>
       <c r="Y51" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z51" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z51" s="8" t="s">
+      <c r="AA51" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA51" s="8" t="s">
+      <c r="AB51" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB51" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC51" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD51" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE51" s="7">
-        <v>79826997850</v>
+      <c r="AE51" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF51" s="7">
         <v>79826997850</v>
@@ -9243,32 +9400,32 @@
       <c r="AG51" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH51" s="9" t="s">
+      <c r="AH51" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI51" s="9" t="s">
+      <c r="AJ51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ51" s="9" t="s">
+      <c r="AK51" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK51" s="9" t="s">
+      <c r="AL51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL51" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM51" s="10"/>
+      <c r="AM51" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN51" s="10"/>
       <c r="AO51" s="10"/>
-      <c r="AP51" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ51" s="9" t="s">
+      <c r="AP51" s="10"/>
+      <c r="AQ51" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR51" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR51" s="7">
-        <v>3170</v>
       </c>
       <c r="AS51" s="7">
         <v>3170</v>
@@ -9276,10 +9433,12 @@
       <c r="AT51" s="7">
         <v>3170</v>
       </c>
-      <c r="AU51" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="AV51" s="5"/>
+      <c r="AU51" s="7">
+        <v>3170</v>
+      </c>
+      <c r="AV51" s="23" t="s">
+        <v>489</v>
+      </c>
       <c r="AW51" s="5"/>
       <c r="AX51" s="5"/>
       <c r="AY51" s="5"/>
@@ -9288,8 +9447,9 @@
       <c r="BB51" s="5"/>
       <c r="BC51" s="5"/>
       <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
     </row>
-    <row r="52" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>36</v>
       </c>
@@ -9313,19 +9473,19 @@
         <v>327</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="M52" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="N52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N52" s="17"/>
       <c r="O52" s="17"/>
-      <c r="P52" s="8" t="s">
-        <v>328</v>
-      </c>
+      <c r="P52" s="17"/>
       <c r="Q52" s="8" t="s">
         <v>328</v>
       </c>
@@ -9333,7 +9493,7 @@
         <v>328</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>329</v>
@@ -9342,7 +9502,7 @@
         <v>329</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W52" s="8" t="s">
         <v>330</v>
@@ -9351,25 +9511,25 @@
         <v>330</v>
       </c>
       <c r="Y52" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z52" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z52" s="8" t="s">
+      <c r="AA52" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA52" s="8" t="s">
+      <c r="AB52" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB52" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC52" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD52" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE52" s="7">
-        <v>79826997850</v>
+      <c r="AE52" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF52" s="7">
         <v>79826997850</v>
@@ -9377,32 +9537,32 @@
       <c r="AG52" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH52" s="9" t="s">
+      <c r="AH52" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI52" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI52" s="9" t="s">
+      <c r="AJ52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ52" s="9" t="s">
+      <c r="AK52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK52" s="9" t="s">
+      <c r="AL52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL52" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM52" s="10"/>
+      <c r="AM52" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN52" s="10"/>
       <c r="AO52" s="10"/>
-      <c r="AP52" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ52" s="9" t="s">
+      <c r="AP52" s="10"/>
+      <c r="AQ52" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR52" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR52" s="7">
-        <v>3050</v>
       </c>
       <c r="AS52" s="7">
         <v>3050</v>
@@ -9410,10 +9570,12 @@
       <c r="AT52" s="7">
         <v>3050</v>
       </c>
-      <c r="AU52" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="AV52" s="5"/>
+      <c r="AU52" s="7">
+        <v>3050</v>
+      </c>
+      <c r="AV52" s="23" t="s">
+        <v>490</v>
+      </c>
       <c r="AW52" s="5"/>
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
@@ -9422,8 +9584,9 @@
       <c r="BB52" s="5"/>
       <c r="BC52" s="5"/>
       <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
     </row>
-    <row r="53" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>36</v>
       </c>
@@ -9447,19 +9610,19 @@
         <v>333</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="M53" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="N53" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N53" s="17"/>
       <c r="O53" s="17"/>
-      <c r="P53" s="8" t="s">
-        <v>334</v>
-      </c>
+      <c r="P53" s="17"/>
       <c r="Q53" s="8" t="s">
         <v>334</v>
       </c>
@@ -9467,7 +9630,7 @@
         <v>334</v>
       </c>
       <c r="S53" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>335</v>
@@ -9476,7 +9639,7 @@
         <v>335</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W53" s="8" t="s">
         <v>336</v>
@@ -9485,25 +9648,25 @@
         <v>336</v>
       </c>
       <c r="Y53" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z53" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z53" s="8" t="s">
+      <c r="AA53" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA53" s="8" t="s">
+      <c r="AB53" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB53" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC53" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD53" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE53" s="7">
-        <v>79826997850</v>
+      <c r="AE53" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF53" s="7">
         <v>79826997850</v>
@@ -9511,32 +9674,32 @@
       <c r="AG53" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH53" s="9" t="s">
+      <c r="AH53" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI53" s="9" t="s">
+      <c r="AJ53" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ53" s="9" t="s">
+      <c r="AK53" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK53" s="9" t="s">
+      <c r="AL53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL53" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM53" s="10"/>
+      <c r="AM53" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN53" s="10"/>
       <c r="AO53" s="10"/>
-      <c r="AP53" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ53" s="9" t="s">
+      <c r="AP53" s="10"/>
+      <c r="AQ53" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR53" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR53" s="7">
-        <v>2270</v>
       </c>
       <c r="AS53" s="7">
         <v>2270</v>
@@ -9544,10 +9707,12 @@
       <c r="AT53" s="7">
         <v>2270</v>
       </c>
-      <c r="AU53" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="AV53" s="5"/>
+      <c r="AU53" s="7">
+        <v>2270</v>
+      </c>
+      <c r="AV53" s="23" t="s">
+        <v>491</v>
+      </c>
       <c r="AW53" s="5"/>
       <c r="AX53" s="5"/>
       <c r="AY53" s="5"/>
@@ -9556,8 +9721,9 @@
       <c r="BB53" s="5"/>
       <c r="BC53" s="5"/>
       <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
     </row>
-    <row r="54" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>36</v>
       </c>
@@ -9583,19 +9749,19 @@
         <v>339</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="M54" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="N54" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N54" s="17"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="8" t="s">
-        <v>340</v>
-      </c>
+      <c r="P54" s="17"/>
       <c r="Q54" s="8" t="s">
         <v>340</v>
       </c>
@@ -9603,7 +9769,7 @@
         <v>340</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>341</v>
@@ -9612,7 +9778,7 @@
         <v>341</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W54" s="8" t="s">
         <v>342</v>
@@ -9621,25 +9787,25 @@
         <v>342</v>
       </c>
       <c r="Y54" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z54" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z54" s="8" t="s">
+      <c r="AA54" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA54" s="8" t="s">
+      <c r="AB54" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB54" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC54" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD54" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE54" s="7">
-        <v>79826997850</v>
+      <c r="AE54" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF54" s="7">
         <v>79826997850</v>
@@ -9647,32 +9813,32 @@
       <c r="AG54" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH54" s="9" t="s">
+      <c r="AH54" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI54" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI54" s="9" t="s">
+      <c r="AJ54" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ54" s="9" t="s">
+      <c r="AK54" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK54" s="9" t="s">
+      <c r="AL54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL54" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM54" s="10"/>
+      <c r="AM54" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN54" s="10"/>
       <c r="AO54" s="10"/>
-      <c r="AP54" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ54" s="9" t="s">
+      <c r="AP54" s="10"/>
+      <c r="AQ54" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR54" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR54" s="7">
-        <v>3530</v>
       </c>
       <c r="AS54" s="7">
         <v>3530</v>
@@ -9680,10 +9846,12 @@
       <c r="AT54" s="7">
         <v>3530</v>
       </c>
-      <c r="AU54" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="AV54" s="5"/>
+      <c r="AU54" s="7">
+        <v>3530</v>
+      </c>
+      <c r="AV54" s="19" t="s">
+        <v>492</v>
+      </c>
       <c r="AW54" s="5"/>
       <c r="AX54" s="5"/>
       <c r="AY54" s="5"/>
@@ -9692,8 +9860,9 @@
       <c r="BB54" s="5"/>
       <c r="BC54" s="5"/>
       <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
     </row>
-    <row r="55" spans="1:56" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>36</v>
       </c>
@@ -9721,19 +9890,19 @@
         <v>344</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="M55" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="N55" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N55" s="17"/>
       <c r="O55" s="17"/>
-      <c r="P55" s="8" t="s">
-        <v>345</v>
-      </c>
+      <c r="P55" s="17"/>
       <c r="Q55" s="8" t="s">
         <v>345</v>
       </c>
@@ -9741,7 +9910,7 @@
         <v>345</v>
       </c>
       <c r="S55" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>346</v>
@@ -9750,7 +9919,7 @@
         <v>346</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W55" s="8" t="s">
         <v>347</v>
@@ -9759,25 +9928,25 @@
         <v>347</v>
       </c>
       <c r="Y55" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z55" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z55" s="8" t="s">
+      <c r="AA55" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA55" s="8" t="s">
+      <c r="AB55" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AB55" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="AC55" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AD55" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AE55" s="7">
-        <v>79826997850</v>
+      <c r="AE55" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="AF55" s="7">
         <v>79826997850</v>
@@ -9785,32 +9954,32 @@
       <c r="AG55" s="7">
         <v>79826997850</v>
       </c>
-      <c r="AH55" s="9" t="s">
+      <c r="AH55" s="7">
+        <v>79826997850</v>
+      </c>
+      <c r="AI55" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AI55" s="9" t="s">
+      <c r="AJ55" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ55" s="9" t="s">
+      <c r="AK55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AK55" s="9" t="s">
+      <c r="AL55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AL55" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM55" s="10"/>
+      <c r="AM55" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="AN55" s="10"/>
       <c r="AO55" s="10"/>
-      <c r="AP55" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AQ55" s="9" t="s">
+      <c r="AP55" s="10"/>
+      <c r="AQ55" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="AR55" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AR55" s="7">
-        <v>1660</v>
       </c>
       <c r="AS55" s="7">
         <v>1660</v>
@@ -9818,10 +9987,12 @@
       <c r="AT55" s="7">
         <v>1660</v>
       </c>
-      <c r="AU55" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="AV55" s="5"/>
+      <c r="AU55" s="7">
+        <v>1660</v>
+      </c>
+      <c r="AV55" s="19" t="s">
+        <v>493</v>
+      </c>
       <c r="AW55" s="5"/>
       <c r="AX55" s="5"/>
       <c r="AY55" s="5"/>
@@ -9830,6 +10001,7 @@
       <c r="BB55" s="5"/>
       <c r="BC55" s="5"/>
       <c r="BD55" s="5"/>
+      <c r="BE55" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
